--- a/raw_data/20200818_saline/20200818_Sensor2_Test_89.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_89.xlsx
@@ -1,2487 +1,2903 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D323D7-A2A5-4839-A9D9-08F7A5454A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>79575.068208</v>
+        <v>79575.068207999997</v>
       </c>
       <c r="B2" s="1">
-        <v>22.104186</v>
+        <v>22.104185999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1249.730000</v>
+        <v>1249.73</v>
       </c>
       <c r="D2" s="1">
-        <v>-307.133000</v>
+        <v>-307.13299999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>79585.476225</v>
+        <v>79585.476225000006</v>
       </c>
       <c r="G2" s="1">
         <v>22.107077</v>
       </c>
       <c r="H2" s="1">
-        <v>1275.800000</v>
+        <v>1275.8</v>
       </c>
       <c r="I2" s="1">
-        <v>-266.239000</v>
+        <v>-266.23899999999998</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>79595.937347</v>
+        <v>79595.937346999999</v>
       </c>
       <c r="L2" s="1">
         <v>22.109983</v>
       </c>
       <c r="M2" s="1">
-        <v>1312.220000</v>
+        <v>1312.22</v>
       </c>
       <c r="N2" s="1">
-        <v>-204.911000</v>
+        <v>-204.911</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>79606.458022</v>
+        <v>79606.458022000006</v>
       </c>
       <c r="Q2" s="1">
-        <v>22.112905</v>
+        <v>22.112905000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1324.500000</v>
+        <v>1324.5</v>
       </c>
       <c r="S2" s="1">
-        <v>-186.534000</v>
+        <v>-186.53399999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>79617.032732</v>
+        <v>79617.032732000007</v>
       </c>
       <c r="V2" s="1">
-        <v>22.115842</v>
+        <v>22.115842000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1338.310000</v>
+        <v>1338.31</v>
       </c>
       <c r="X2" s="1">
-        <v>-173.073000</v>
+        <v>-173.07300000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>79627.468058</v>
+        <v>79627.468057999999</v>
       </c>
       <c r="AA2" s="1">
         <v>22.118741</v>
       </c>
       <c r="AB2" s="1">
-        <v>1356.210000</v>
+        <v>1356.21</v>
       </c>
       <c r="AC2" s="1">
-        <v>-170.929000</v>
+        <v>-170.929</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>79638.397403</v>
+        <v>79638.397402999995</v>
       </c>
       <c r="AF2" s="1">
-        <v>22.121777</v>
+        <v>22.121777000000002</v>
       </c>
       <c r="AG2" s="1">
-        <v>1369.660000</v>
+        <v>1369.66</v>
       </c>
       <c r="AH2" s="1">
-        <v>-180.690000</v>
+        <v>-180.69</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>79648.857502</v>
+        <v>79648.857501999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>22.124683</v>
+        <v>22.124683000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1391.170000</v>
+        <v>1391.17</v>
       </c>
       <c r="AM2" s="1">
-        <v>-210.227000</v>
+        <v>-210.227</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>79659.748655</v>
+        <v>79659.748655000003</v>
       </c>
       <c r="AP2" s="1">
-        <v>22.127708</v>
+        <v>22.127707999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1413.540000</v>
+        <v>1413.54</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.579000</v>
+        <v>-253.57900000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>79670.780009</v>
+        <v>79670.780008999995</v>
       </c>
       <c r="AU2" s="1">
         <v>22.130772</v>
       </c>
       <c r="AV2" s="1">
-        <v>1438.820000</v>
+        <v>1438.82</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.865000</v>
+        <v>-312.86500000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>79681.942642</v>
+        <v>79681.942641999995</v>
       </c>
       <c r="AZ2" s="1">
-        <v>22.133873</v>
+        <v>22.133873000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1458.610000</v>
+        <v>1458.61</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.304000</v>
+        <v>-364.30399999999997</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>79692.940469</v>
+        <v>79692.940468999994</v>
       </c>
       <c r="BE2" s="1">
-        <v>22.136928</v>
+        <v>22.136928000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1545.300000</v>
+        <v>1545.3</v>
       </c>
       <c r="BG2" s="1">
-        <v>-609.422000</v>
+        <v>-609.42200000000003</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>79704.247733</v>
+        <v>79704.247732999997</v>
       </c>
       <c r="BJ2" s="1">
         <v>22.140069</v>
       </c>
       <c r="BK2" s="1">
-        <v>1701.310000</v>
+        <v>1701.31</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1048.070000</v>
+        <v>-1048.07</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>79715.280743</v>
+        <v>79715.280742999996</v>
       </c>
       <c r="BO2" s="1">
         <v>22.143134</v>
       </c>
       <c r="BP2" s="1">
-        <v>1997.480000</v>
+        <v>1997.48</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1805.730000</v>
+        <v>-1805.73</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>79725.302410</v>
+        <v>79725.302410000004</v>
       </c>
       <c r="BT2" s="1">
-        <v>22.145917</v>
+        <v>22.145917000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>2386.340000</v>
+        <v>2386.34</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2675.220000</v>
+        <v>-2675.22</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>79736.461401</v>
+        <v>79736.461400999993</v>
       </c>
       <c r="BY2" s="1">
-        <v>22.149017</v>
+        <v>22.149017000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2866.580000</v>
+        <v>2866.58</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3625.710000</v>
+        <v>-3625.71</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>79747.297997</v>
+        <v>79747.297997000001</v>
       </c>
       <c r="CD2" s="1">
         <v>22.152027</v>
       </c>
       <c r="CE2" s="1">
-        <v>4260.260000</v>
+        <v>4260.26</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5907.780000</v>
+        <v>-5907.78</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>79575.497216</v>
+        <v>79575.497216000003</v>
       </c>
       <c r="B3" s="1">
         <v>22.104305</v>
       </c>
       <c r="C3" s="1">
-        <v>1249.660000</v>
+        <v>1249.6600000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-307.163000</v>
+        <v>-307.16300000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>79585.872566</v>
+        <v>79585.872566000005</v>
       </c>
       <c r="G3" s="1">
         <v>22.107187</v>
       </c>
       <c r="H3" s="1">
-        <v>1275.910000</v>
+        <v>1275.9100000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-266.827000</v>
+        <v>-266.827</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>79596.340628</v>
+        <v>79596.340628000005</v>
       </c>
       <c r="L3" s="1">
-        <v>22.110095</v>
+        <v>22.110095000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1312.140000</v>
+        <v>1312.14</v>
       </c>
       <c r="N3" s="1">
-        <v>-204.558000</v>
+        <v>-204.55799999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>79606.843381</v>
+        <v>79606.843380999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>22.113012</v>
+        <v>22.113012000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1324.580000</v>
+        <v>1324.58</v>
       </c>
       <c r="S3" s="1">
-        <v>-186.500000</v>
+        <v>-186.5</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>79617.406185</v>
       </c>
       <c r="V3" s="1">
-        <v>22.115946</v>
+        <v>22.115946000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1338.260000</v>
+        <v>1338.26</v>
       </c>
       <c r="X3" s="1">
-        <v>-173.225000</v>
+        <v>-173.22499999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>79627.856394</v>
+        <v>79627.856394000002</v>
       </c>
       <c r="AA3" s="1">
-        <v>22.118849</v>
+        <v>22.118849000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1356.180000</v>
+        <v>1356.18</v>
       </c>
       <c r="AC3" s="1">
-        <v>-171.003000</v>
+        <v>-171.00299999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>79639.122026</v>
+        <v>79639.122025999997</v>
       </c>
       <c r="AF3" s="1">
-        <v>22.121978</v>
+        <v>22.121977999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>1369.670000</v>
+        <v>1369.67</v>
       </c>
       <c r="AH3" s="1">
-        <v>-180.628000</v>
+        <v>-180.62799999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>79649.590589</v>
+        <v>79649.590588999999</v>
       </c>
       <c r="AK3" s="1">
         <v>22.124886</v>
       </c>
       <c r="AL3" s="1">
-        <v>1391.130000</v>
+        <v>1391.13</v>
       </c>
       <c r="AM3" s="1">
-        <v>-210.213000</v>
+        <v>-210.21299999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>79660.141024</v>
+        <v>79660.141023999997</v>
       </c>
       <c r="AP3" s="1">
         <v>22.127817</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1413.530000</v>
+        <v>1413.53</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.574000</v>
+        <v>-253.57400000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>79671.147712</v>
+        <v>79671.147712000005</v>
       </c>
       <c r="AU3" s="1">
-        <v>22.130874</v>
+        <v>22.130873999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1438.840000</v>
+        <v>1438.84</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.861000</v>
+        <v>-312.86099999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>79682.330018</v>
+        <v>79682.330017999993</v>
       </c>
       <c r="AZ3" s="1">
-        <v>22.133981</v>
+        <v>22.133980999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1458.640000</v>
+        <v>1458.64</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.326000</v>
+        <v>-364.32600000000002</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>79693.622967</v>
+        <v>79693.622967000003</v>
       </c>
       <c r="BE3" s="1">
         <v>22.137117</v>
       </c>
       <c r="BF3" s="1">
-        <v>1545.310000</v>
+        <v>1545.31</v>
       </c>
       <c r="BG3" s="1">
-        <v>-609.445000</v>
+        <v>-609.44500000000005</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>79704.357844</v>
+        <v>79704.357843999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>22.140099</v>
+        <v>22.140098999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1701.270000</v>
+        <v>1701.27</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1048.130000</v>
+        <v>-1048.1300000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>79715.393334</v>
+        <v>79715.393333999993</v>
       </c>
       <c r="BO3" s="1">
         <v>22.143165</v>
       </c>
       <c r="BP3" s="1">
-        <v>1997.380000</v>
+        <v>1997.38</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1805.800000</v>
+        <v>-1805.8</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>79725.800405</v>
+        <v>79725.800405000002</v>
       </c>
       <c r="BT3" s="1">
-        <v>22.146056</v>
+        <v>22.146056000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>2385.470000</v>
+        <v>2385.4699999999998</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2675.410000</v>
+        <v>-2675.41</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>79736.968313</v>
+        <v>79736.968313000005</v>
       </c>
       <c r="BY3" s="1">
         <v>22.149158</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2866.180000</v>
+        <v>2866.18</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3625.540000</v>
+        <v>-3625.54</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>79747.876826</v>
+        <v>79747.876826000007</v>
       </c>
       <c r="CD3" s="1">
-        <v>22.152188</v>
+        <v>22.152187999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>4265.380000</v>
+        <v>4265.38</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5893.980000</v>
+        <v>-5893.98</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>79575.773488</v>
+        <v>79575.773488000006</v>
       </c>
       <c r="B4" s="1">
-        <v>22.104382</v>
+        <v>22.104382000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1249.890000</v>
+        <v>1249.8900000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-306.887000</v>
+        <v>-306.887</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>79586.218272</v>
+        <v>79586.218271999998</v>
       </c>
       <c r="G4" s="1">
-        <v>22.107283</v>
+        <v>22.107282999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1275.170000</v>
+        <v>1275.17</v>
       </c>
       <c r="I4" s="1">
-        <v>-265.367000</v>
+        <v>-265.36700000000002</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>79596.684820</v>
+        <v>79596.684819999995</v>
       </c>
       <c r="L4" s="1">
-        <v>22.110190</v>
+        <v>22.110189999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1312.200000</v>
+        <v>1312.2</v>
       </c>
       <c r="N4" s="1">
-        <v>-204.395000</v>
+        <v>-204.39500000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>79607.191572</v>
+        <v>79607.191571999996</v>
       </c>
       <c r="Q4" s="1">
-        <v>22.113109</v>
+        <v>22.113109000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1324.520000</v>
+        <v>1324.52</v>
       </c>
       <c r="S4" s="1">
-        <v>-186.655000</v>
+        <v>-186.655</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>79617.747431</v>
+        <v>79617.747430999996</v>
       </c>
       <c r="V4" s="1">
-        <v>22.116041</v>
+        <v>22.116040999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1338.020000</v>
+        <v>1338.02</v>
       </c>
       <c r="X4" s="1">
-        <v>-173.195000</v>
+        <v>-173.19499999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>79628.552280</v>
+        <v>79628.552280000004</v>
       </c>
       <c r="AA4" s="1">
         <v>22.119042</v>
       </c>
       <c r="AB4" s="1">
-        <v>1356.220000</v>
+        <v>1356.22</v>
       </c>
       <c r="AC4" s="1">
-        <v>-170.926000</v>
+        <v>-170.92599999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>79639.468266</v>
+        <v>79639.468265999996</v>
       </c>
       <c r="AF4" s="1">
-        <v>22.122075</v>
+        <v>22.122074999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1369.710000</v>
+        <v>1369.71</v>
       </c>
       <c r="AH4" s="1">
-        <v>-180.666000</v>
+        <v>-180.666</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>79649.938284</v>
+        <v>79649.938284000003</v>
       </c>
       <c r="AK4" s="1">
         <v>22.124983</v>
       </c>
       <c r="AL4" s="1">
-        <v>1391.150000</v>
+        <v>1391.15</v>
       </c>
       <c r="AM4" s="1">
-        <v>-210.215000</v>
+        <v>-210.215</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>79660.502608</v>
+        <v>79660.502607999995</v>
       </c>
       <c r="AP4" s="1">
         <v>22.127917</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1413.550000</v>
+        <v>1413.55</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.600000</v>
+        <v>-253.6</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>79671.824784</v>
+        <v>79671.824783999997</v>
       </c>
       <c r="AU4" s="1">
         <v>22.131062</v>
       </c>
       <c r="AV4" s="1">
-        <v>1438.820000</v>
+        <v>1438.82</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.852000</v>
+        <v>-312.85199999999998</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>79683.002594</v>
+        <v>79683.002594000005</v>
       </c>
       <c r="AZ4" s="1">
-        <v>22.134167</v>
+        <v>22.134167000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1458.590000</v>
+        <v>1458.59</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.281000</v>
+        <v>-364.28100000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>79694.053460</v>
+        <v>79694.053459999996</v>
       </c>
       <c r="BE4" s="1">
-        <v>22.137237</v>
+        <v>22.137236999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1545.230000</v>
+        <v>1545.23</v>
       </c>
       <c r="BG4" s="1">
-        <v>-609.419000</v>
+        <v>-609.41899999999998</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>79704.718436</v>
+        <v>79704.718435999996</v>
       </c>
       <c r="BJ4" s="1">
-        <v>22.140200</v>
+        <v>22.1402</v>
       </c>
       <c r="BK4" s="1">
-        <v>1701.250000</v>
+        <v>1701.25</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1048.100000</v>
+        <v>-1048.0999999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>79715.800581</v>
+        <v>79715.800581000003</v>
       </c>
       <c r="BO4" s="1">
-        <v>22.143278</v>
+        <v>22.143277999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1997.350000</v>
+        <v>1997.35</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1805.980000</v>
+        <v>-1805.98</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>79726.210102</v>
+        <v>79726.210101999997</v>
       </c>
       <c r="BT4" s="1">
         <v>22.146169</v>
       </c>
       <c r="BU4" s="1">
-        <v>2385.180000</v>
+        <v>2385.1799999999998</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2675.530000</v>
+        <v>-2675.53</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>79737.577929</v>
+        <v>79737.577929000006</v>
       </c>
       <c r="BY4" s="1">
         <v>22.149327</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2865.700000</v>
+        <v>2865.7</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3626.450000</v>
+        <v>-3626.45</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>79748.408538</v>
+        <v>79748.408538000003</v>
       </c>
       <c r="CD4" s="1">
-        <v>22.152336</v>
+        <v>22.152335999999998</v>
       </c>
       <c r="CE4" s="1">
-        <v>4256.240000</v>
+        <v>4256.24</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5906.220000</v>
+        <v>-5906.22</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>79576.116717</v>
+        <v>79576.116716999997</v>
       </c>
       <c r="B5" s="1">
-        <v>22.104477</v>
+        <v>22.104476999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1249.840000</v>
+        <v>1249.8399999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-307.066000</v>
+        <v>-307.06599999999997</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>79586.561014</v>
+        <v>79586.561014000006</v>
       </c>
       <c r="G5" s="1">
-        <v>22.107378</v>
+        <v>22.107378000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1274.230000</v>
+        <v>1274.23</v>
       </c>
       <c r="I5" s="1">
-        <v>-266.064000</v>
+        <v>-266.06400000000002</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>79597.028050</v>
+        <v>79597.028049999994</v>
       </c>
       <c r="L5" s="1">
-        <v>22.110286</v>
+        <v>22.110285999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1312.450000</v>
+        <v>1312.45</v>
       </c>
       <c r="N5" s="1">
-        <v>-204.736000</v>
+        <v>-204.73599999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>79607.891429</v>
+        <v>79607.891428999996</v>
       </c>
       <c r="Q5" s="1">
-        <v>22.113303</v>
+        <v>22.113302999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>1324.510000</v>
+        <v>1324.51</v>
       </c>
       <c r="S5" s="1">
-        <v>-186.645000</v>
+        <v>-186.64500000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>79618.428934</v>
+        <v>79618.428933999996</v>
       </c>
       <c r="V5" s="1">
-        <v>22.116230</v>
+        <v>22.116230000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>1338.050000</v>
+        <v>1338.05</v>
       </c>
       <c r="X5" s="1">
-        <v>-173.161000</v>
+        <v>-173.161</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>79628.897993</v>
+        <v>79628.897993000006</v>
       </c>
       <c r="AA5" s="1">
         <v>22.119138</v>
       </c>
       <c r="AB5" s="1">
-        <v>1356.210000</v>
+        <v>1356.21</v>
       </c>
       <c r="AC5" s="1">
-        <v>-170.960000</v>
+        <v>-170.96</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>79639.810473</v>
+        <v>79639.810473000005</v>
       </c>
       <c r="AF5" s="1">
-        <v>22.122170</v>
+        <v>22.122170000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>1369.650000</v>
+        <v>1369.65</v>
       </c>
       <c r="AH5" s="1">
-        <v>-180.613000</v>
+        <v>-180.613</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>79650.288460</v>
+        <v>79650.288459999996</v>
       </c>
       <c r="AK5" s="1">
-        <v>22.125080</v>
+        <v>22.125080000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>1391.160000</v>
+        <v>1391.16</v>
       </c>
       <c r="AM5" s="1">
-        <v>-210.180000</v>
+        <v>-210.18</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>79661.171679</v>
+        <v>79661.171679000006</v>
       </c>
       <c r="AP5" s="1">
-        <v>22.128103</v>
+        <v>22.128102999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1413.570000</v>
+        <v>1413.57</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.570000</v>
+        <v>-253.57</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>79672.272142</v>
+        <v>79672.272142000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>22.131187</v>
+        <v>22.131187000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1438.780000</v>
+        <v>1438.78</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.831000</v>
+        <v>-312.83100000000002</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>79683.437588</v>
+        <v>79683.437588000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>22.134288</v>
+        <v>22.134288000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>1458.630000</v>
+        <v>1458.63</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.306000</v>
+        <v>-364.30599999999998</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>79694.413553</v>
+        <v>79694.413553000006</v>
       </c>
       <c r="BE5" s="1">
-        <v>22.137337</v>
+        <v>22.137336999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1545.260000</v>
+        <v>1545.26</v>
       </c>
       <c r="BG5" s="1">
-        <v>-609.443000</v>
+        <v>-609.44299999999998</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>79705.093721</v>
+        <v>79705.093720999997</v>
       </c>
       <c r="BJ5" s="1">
         <v>22.140304</v>
       </c>
       <c r="BK5" s="1">
-        <v>1701.220000</v>
+        <v>1701.22</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1048.140000</v>
+        <v>-1048.1400000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>79716.198837</v>
+        <v>79716.198837000004</v>
       </c>
       <c r="BO5" s="1">
-        <v>22.143389</v>
+        <v>22.143388999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1997.240000</v>
+        <v>1997.24</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1806.100000</v>
+        <v>-1806.1</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>79726.644583</v>
+        <v>79726.644583000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>22.146290</v>
+        <v>22.14629</v>
       </c>
       <c r="BU5" s="1">
-        <v>2384.370000</v>
+        <v>2384.37</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2675.120000</v>
+        <v>-2675.12</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>79737.774846</v>
       </c>
       <c r="BY5" s="1">
-        <v>22.149382</v>
+        <v>22.149381999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2865.990000</v>
+        <v>2865.99</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3626.590000</v>
+        <v>-3626.59</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>79748.925865</v>
+        <v>79748.925864999997</v>
       </c>
       <c r="CD5" s="1">
         <v>22.152479</v>
       </c>
       <c r="CE5" s="1">
-        <v>4271.340000</v>
+        <v>4271.34</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5914.760000</v>
+        <v>-5914.76</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>79576.458957</v>
+        <v>79576.458956999995</v>
       </c>
       <c r="B6" s="1">
-        <v>22.104572</v>
+        <v>22.104572000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1250.070000</v>
+        <v>1250.07</v>
       </c>
       <c r="D6" s="1">
-        <v>-306.895000</v>
+        <v>-306.89499999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>79587.251904</v>
+        <v>79587.251904000004</v>
       </c>
       <c r="G6" s="1">
-        <v>22.107570</v>
+        <v>22.107569999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1275.770000</v>
+        <v>1275.77</v>
       </c>
       <c r="I6" s="1">
-        <v>-265.525000</v>
+        <v>-265.52499999999998</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>79597.723448</v>
+        <v>79597.723448000004</v>
       </c>
       <c r="L6" s="1">
-        <v>22.110479</v>
+        <v>22.110479000000002</v>
       </c>
       <c r="M6" s="1">
-        <v>1312.300000</v>
+        <v>1312.3</v>
       </c>
       <c r="N6" s="1">
-        <v>-204.502000</v>
+        <v>-204.50200000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>79608.238168</v>
+        <v>79608.238167999996</v>
       </c>
       <c r="Q6" s="1">
-        <v>22.113399</v>
+        <v>22.113399000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1324.460000</v>
+        <v>1324.46</v>
       </c>
       <c r="S6" s="1">
-        <v>-186.673000</v>
+        <v>-186.673</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>79618.781093</v>
+        <v>79618.781092999998</v>
       </c>
       <c r="V6" s="1">
-        <v>22.116328</v>
+        <v>22.116327999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1338.370000</v>
+        <v>1338.37</v>
       </c>
       <c r="X6" s="1">
-        <v>-173.201000</v>
+        <v>-173.20099999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>79629.250648</v>
+        <v>79629.250648000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>22.119236</v>
+        <v>22.119236000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1356.230000</v>
+        <v>1356.23</v>
       </c>
       <c r="AC6" s="1">
-        <v>-170.894000</v>
+        <v>-170.89400000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>79640.475608</v>
+        <v>79640.475607999993</v>
       </c>
       <c r="AF6" s="1">
-        <v>22.122354</v>
+        <v>22.122354000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1369.660000</v>
+        <v>1369.66</v>
       </c>
       <c r="AH6" s="1">
-        <v>-180.581000</v>
+        <v>-180.58099999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>79650.953595</v>
+        <v>79650.953594999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>22.125265</v>
+        <v>22.125264999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1391.150000</v>
+        <v>1391.15</v>
       </c>
       <c r="AM6" s="1">
-        <v>-210.246000</v>
+        <v>-210.24600000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>79661.616127</v>
+        <v>79661.616127000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>22.128227</v>
+        <v>22.128226999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1413.580000</v>
+        <v>1413.58</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.586000</v>
+        <v>-253.58600000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>79672.637714</v>
+        <v>79672.637713999997</v>
       </c>
       <c r="AU6" s="1">
-        <v>22.131288</v>
+        <v>22.131288000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1438.830000</v>
+        <v>1438.83</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.846000</v>
+        <v>-312.846</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>79683.798686</v>
+        <v>79683.798685999995</v>
       </c>
       <c r="AZ6" s="1">
-        <v>22.134389</v>
+        <v>22.134388999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1458.600000</v>
+        <v>1458.6</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.308000</v>
+        <v>-364.30799999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>79694.773682</v>
+        <v>79694.773681999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>22.137437</v>
+        <v>22.137436999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1545.270000</v>
+        <v>1545.27</v>
       </c>
       <c r="BG6" s="1">
-        <v>-609.447000</v>
+        <v>-609.447</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>79705.513026</v>
+        <v>79705.513026000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>22.140420</v>
+        <v>22.140419999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1701.150000</v>
+        <v>1701.15</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1048.150000</v>
+        <v>-1048.1500000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>79716.621925</v>
+        <v>79716.621924999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>22.143506</v>
+        <v>22.143505999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1997.140000</v>
+        <v>1997.14</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1806.110000</v>
+        <v>-1806.11</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>79727.071180</v>
+        <v>79727.071179999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>22.146409</v>
+        <v>22.146408999999998</v>
       </c>
       <c r="BU6" s="1">
-        <v>2384.280000</v>
+        <v>2384.2800000000002</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2675.600000</v>
+        <v>-2675.6</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>79738.211783</v>
+        <v>79738.211783000006</v>
       </c>
       <c r="BY6" s="1">
-        <v>22.149503</v>
+        <v>22.149502999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2866.780000</v>
+        <v>2866.78</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3626.060000</v>
+        <v>-3626.06</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>79749.445209</v>
+        <v>79749.445208999998</v>
       </c>
       <c r="CD6" s="1">
-        <v>22.152624</v>
+        <v>22.152623999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>4276.590000</v>
+        <v>4276.59</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5897.570000</v>
+        <v>-5897.57</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>79577.142454</v>
+        <v>79577.142454000001</v>
       </c>
       <c r="B7" s="1">
-        <v>22.104762</v>
+        <v>22.104762000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1249.980000</v>
+        <v>1249.98</v>
       </c>
       <c r="D7" s="1">
-        <v>-307.232000</v>
+        <v>-307.23200000000003</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>79587.596622</v>
+        <v>79587.596621999997</v>
       </c>
       <c r="G7" s="1">
-        <v>22.107666</v>
+        <v>22.107665999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>1275.640000</v>
+        <v>1275.6400000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-265.624000</v>
+        <v>-265.62400000000002</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>79598.070144</v>
+        <v>79598.070143999998</v>
       </c>
       <c r="L7" s="1">
-        <v>22.110575</v>
+        <v>22.110575000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1312.310000</v>
+        <v>1312.31</v>
       </c>
       <c r="N7" s="1">
-        <v>-204.702000</v>
+        <v>-204.702</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>79608.587315</v>
+        <v>79608.587314999997</v>
       </c>
       <c r="Q7" s="1">
-        <v>22.113496</v>
+        <v>22.113496000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1324.490000</v>
+        <v>1324.49</v>
       </c>
       <c r="S7" s="1">
-        <v>-186.522000</v>
+        <v>-186.52199999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>79619.437796</v>
+        <v>79619.437795999998</v>
       </c>
       <c r="V7" s="1">
-        <v>22.116510</v>
+        <v>22.116510000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>1337.980000</v>
+        <v>1337.98</v>
       </c>
       <c r="X7" s="1">
-        <v>-173.132000</v>
+        <v>-173.13200000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>79629.906855</v>
+        <v>79629.906854999994</v>
       </c>
       <c r="AA7" s="1">
-        <v>22.119419</v>
+        <v>22.119419000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1356.210000</v>
+        <v>1356.21</v>
       </c>
       <c r="AC7" s="1">
-        <v>-170.891000</v>
+        <v>-170.89099999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>79640.840665</v>
+        <v>79640.840664999996</v>
       </c>
       <c r="AF7" s="1">
         <v>22.122456</v>
       </c>
       <c r="AG7" s="1">
-        <v>1369.690000</v>
+        <v>1369.69</v>
       </c>
       <c r="AH7" s="1">
-        <v>-180.567000</v>
+        <v>-180.56700000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>79651.337500</v>
+        <v>79651.337499999994</v>
       </c>
       <c r="AK7" s="1">
-        <v>22.125372</v>
+        <v>22.125371999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1391.190000</v>
+        <v>1391.19</v>
       </c>
       <c r="AM7" s="1">
-        <v>-210.215000</v>
+        <v>-210.215</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>79661.974204</v>
+        <v>79661.974203999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>22.128326</v>
+        <v>22.128326000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1413.580000</v>
+        <v>1413.58</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.537000</v>
+        <v>-253.53700000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>79672.992831</v>
+        <v>79672.992830999996</v>
       </c>
       <c r="AU7" s="1">
         <v>22.131387</v>
       </c>
       <c r="AV7" s="1">
-        <v>1438.820000</v>
+        <v>1438.82</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.836000</v>
+        <v>-312.83600000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>79684.155295</v>
+        <v>79684.155295000004</v>
       </c>
       <c r="AZ7" s="1">
-        <v>22.134488</v>
+        <v>22.134488000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1458.610000</v>
+        <v>1458.61</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.265000</v>
+        <v>-364.26499999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>79695.211224</v>
+        <v>79695.211223999999</v>
       </c>
       <c r="BE7" s="1">
         <v>22.137559</v>
       </c>
       <c r="BF7" s="1">
-        <v>1545.270000</v>
+        <v>1545.27</v>
       </c>
       <c r="BG7" s="1">
-        <v>-609.408000</v>
+        <v>-609.40800000000002</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>79705.851826</v>
+        <v>79705.851825999998</v>
       </c>
       <c r="BJ7" s="1">
         <v>22.140514</v>
       </c>
       <c r="BK7" s="1">
-        <v>1701.240000</v>
+        <v>1701.24</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1048.190000</v>
+        <v>-1048.19</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>79717.018228</v>
+        <v>79717.018228000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>22.143616</v>
+        <v>22.143616000000002</v>
       </c>
       <c r="BP7" s="1">
-        <v>1997.080000</v>
+        <v>1997.08</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1806.100000</v>
+        <v>-1806.1</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>79727.486293</v>
+        <v>79727.486292999994</v>
       </c>
       <c r="BT7" s="1">
-        <v>22.146524</v>
+        <v>22.146523999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>2383.610000</v>
+        <v>2383.61</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2675.770000</v>
+        <v>-2675.77</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>79738.668599</v>
+        <v>79738.668598999997</v>
       </c>
       <c r="BY7" s="1">
-        <v>22.149630</v>
+        <v>22.149629999999998</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2866.350000</v>
+        <v>2866.35</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3625.940000</v>
+        <v>-3625.94</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>79749.959528</v>
+        <v>79749.959528000007</v>
       </c>
       <c r="CD7" s="1">
-        <v>22.152767</v>
+        <v>22.152767000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>4276.100000</v>
+        <v>4276.1000000000004</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5899.150000</v>
+        <v>-5899.15</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>79577.485181</v>
+        <v>79577.485180999996</v>
       </c>
       <c r="B8" s="1">
-        <v>22.104857</v>
+        <v>22.104856999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1250.080000</v>
+        <v>1250.08</v>
       </c>
       <c r="D8" s="1">
-        <v>-306.861000</v>
+        <v>-306.86099999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>79587.941342</v>
+        <v>79587.941342000006</v>
       </c>
       <c r="G8" s="1">
         <v>22.107761</v>
       </c>
       <c r="H8" s="1">
-        <v>1276.040000</v>
+        <v>1276.04</v>
       </c>
       <c r="I8" s="1">
-        <v>-266.198000</v>
+        <v>-266.19799999999998</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>79598.417840</v>
+        <v>79598.417839999995</v>
       </c>
       <c r="L8" s="1">
-        <v>22.110672</v>
+        <v>22.110672000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1312.460000</v>
+        <v>1312.46</v>
       </c>
       <c r="N8" s="1">
-        <v>-204.500000</v>
+        <v>-204.5</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>79609.249970</v>
+        <v>79609.249970000004</v>
       </c>
       <c r="Q8" s="1">
         <v>22.113681</v>
       </c>
       <c r="R8" s="1">
-        <v>1324.660000</v>
+        <v>1324.66</v>
       </c>
       <c r="S8" s="1">
-        <v>-186.488000</v>
+        <v>-186.488</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>79619.810789</v>
+        <v>79619.810788999996</v>
       </c>
       <c r="V8" s="1">
-        <v>22.116614</v>
+        <v>22.116613999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>1338.280000</v>
+        <v>1338.28</v>
       </c>
       <c r="X8" s="1">
-        <v>-173.137000</v>
+        <v>-173.137</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>79630.295222</v>
+        <v>79630.295222000001</v>
       </c>
       <c r="AA8" s="1">
         <v>22.119526</v>
       </c>
       <c r="AB8" s="1">
-        <v>1356.090000</v>
+        <v>1356.09</v>
       </c>
       <c r="AC8" s="1">
-        <v>-171.034000</v>
+        <v>-171.03399999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>79641.184391</v>
+        <v>79641.184391000003</v>
       </c>
       <c r="AF8" s="1">
-        <v>22.122551</v>
+        <v>22.122551000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1369.670000</v>
+        <v>1369.67</v>
       </c>
       <c r="AH8" s="1">
-        <v>-180.615000</v>
+        <v>-180.61500000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>79651.681722</v>
+        <v>79651.681721999994</v>
       </c>
       <c r="AK8" s="1">
         <v>22.125467</v>
       </c>
       <c r="AL8" s="1">
-        <v>1391.160000</v>
+        <v>1391.16</v>
       </c>
       <c r="AM8" s="1">
-        <v>-210.233000</v>
+        <v>-210.233</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>79662.334300</v>
+        <v>79662.334300000002</v>
       </c>
       <c r="AP8" s="1">
-        <v>22.128426</v>
+        <v>22.128426000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1413.570000</v>
+        <v>1413.57</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.531000</v>
+        <v>-253.53100000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>79673.439763</v>
+        <v>79673.439763000002</v>
       </c>
       <c r="AU8" s="1">
         <v>22.131511</v>
       </c>
       <c r="AV8" s="1">
-        <v>1438.850000</v>
+        <v>1438.85</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.823000</v>
+        <v>-312.82299999999998</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>79684.584831</v>
       </c>
       <c r="AZ8" s="1">
-        <v>22.134607</v>
+        <v>22.134606999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1458.620000</v>
+        <v>1458.62</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.347000</v>
+        <v>-364.34699999999998</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>79695.498342</v>
+        <v>79695.498342000006</v>
       </c>
       <c r="BE8" s="1">
-        <v>22.137638</v>
+        <v>22.137637999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1545.290000</v>
+        <v>1545.29</v>
       </c>
       <c r="BG8" s="1">
-        <v>-609.406000</v>
+        <v>-609.40599999999995</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>79706.241650</v>
+        <v>79706.241649999996</v>
       </c>
       <c r="BJ8" s="1">
-        <v>22.140623</v>
+        <v>22.140623000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1701.230000</v>
+        <v>1701.23</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1048.180000</v>
+        <v>-1048.18</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>79717.436355</v>
+        <v>79717.436354999998</v>
       </c>
       <c r="BO8" s="1">
         <v>22.143732</v>
       </c>
       <c r="BP8" s="1">
-        <v>1997.230000</v>
+        <v>1997.23</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1805.980000</v>
+        <v>-1805.98</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>79727.912853</v>
+        <v>79727.912853000002</v>
       </c>
       <c r="BT8" s="1">
         <v>22.146642</v>
       </c>
       <c r="BU8" s="1">
-        <v>2383.710000</v>
+        <v>2383.71</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2676.270000</v>
+        <v>-2676.27</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>79739.117478</v>
       </c>
       <c r="BY8" s="1">
-        <v>22.149755</v>
+        <v>22.149754999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2865.940000</v>
+        <v>2865.94</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3625.650000</v>
+        <v>-3625.65</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>79750.524969</v>
+        <v>79750.524969000006</v>
       </c>
       <c r="CD8" s="1">
-        <v>22.152924</v>
+        <v>22.152923999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>4275.250000</v>
+        <v>4275.25</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5911.420000</v>
+        <v>-5911.42</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>79577.829404</v>
+        <v>79577.829404000004</v>
       </c>
       <c r="B9" s="1">
-        <v>22.104953</v>
+        <v>22.104952999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>1250.110000</v>
+        <v>1250.1099999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-306.697000</v>
+        <v>-306.697</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>79588.601021</v>
+        <v>79588.601020999995</v>
       </c>
       <c r="G9" s="1">
-        <v>22.107945</v>
+        <v>22.107945000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1276.090000</v>
+        <v>1276.0899999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-266.274000</v>
+        <v>-266.274</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>79599.085455</v>
+        <v>79599.085454999993</v>
       </c>
       <c r="L9" s="1">
-        <v>22.110857</v>
+        <v>22.110856999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1312.350000</v>
+        <v>1312.35</v>
       </c>
       <c r="N9" s="1">
-        <v>-204.736000</v>
+        <v>-204.73599999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>79609.632914</v>
+        <v>79609.632914000002</v>
       </c>
       <c r="Q9" s="1">
-        <v>22.113787</v>
+        <v>22.113786999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1324.630000</v>
+        <v>1324.63</v>
       </c>
       <c r="S9" s="1">
-        <v>-186.607000</v>
+        <v>-186.607</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>79620.156003</v>
+        <v>79620.156002999996</v>
       </c>
       <c r="V9" s="1">
-        <v>22.116710</v>
+        <v>22.116710000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1338.330000</v>
+        <v>1338.33</v>
       </c>
       <c r="X9" s="1">
-        <v>-173.128000</v>
+        <v>-173.12799999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>79630.641429</v>
+        <v>79630.641428999996</v>
       </c>
       <c r="AA9" s="1">
-        <v>22.119623</v>
+        <v>22.119623000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1356.310000</v>
+        <v>1356.31</v>
       </c>
       <c r="AC9" s="1">
-        <v>-170.862000</v>
+        <v>-170.86199999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>79641.527623</v>
+        <v>79641.527623000002</v>
       </c>
       <c r="AF9" s="1">
-        <v>22.122647</v>
+        <v>22.122647000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1369.690000</v>
+        <v>1369.69</v>
       </c>
       <c r="AH9" s="1">
-        <v>-180.582000</v>
+        <v>-180.58199999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>79652.032393</v>
+        <v>79652.032393000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>22.125565</v>
+        <v>22.125565000000002</v>
       </c>
       <c r="AL9" s="1">
-        <v>1391.130000</v>
+        <v>1391.13</v>
       </c>
       <c r="AM9" s="1">
-        <v>-210.194000</v>
+        <v>-210.19399999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>79662.757419</v>
+        <v>79662.757419000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>22.128544</v>
+        <v>22.128544000000002</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1413.560000</v>
+        <v>1413.56</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.562000</v>
+        <v>-253.56200000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>79673.732861</v>
+        <v>79673.732860999997</v>
       </c>
       <c r="AU9" s="1">
-        <v>22.131592</v>
+        <v>22.131592000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1438.860000</v>
+        <v>1438.86</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.853000</v>
+        <v>-312.85300000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>79684.874990</v>
+        <v>79684.874989999997</v>
       </c>
       <c r="AZ9" s="1">
         <v>22.134687</v>
       </c>
       <c r="BA9" s="1">
-        <v>1458.580000</v>
+        <v>1458.58</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.325000</v>
+        <v>-364.32499999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>79695.859393</v>
+        <v>79695.859393000006</v>
       </c>
       <c r="BE9" s="1">
         <v>22.137739</v>
       </c>
       <c r="BF9" s="1">
-        <v>1545.250000</v>
+        <v>1545.25</v>
       </c>
       <c r="BG9" s="1">
-        <v>-609.420000</v>
+        <v>-609.41999999999996</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>79706.615634</v>
+        <v>79706.615634000002</v>
       </c>
       <c r="BJ9" s="1">
-        <v>22.140727</v>
+        <v>22.140726999999998</v>
       </c>
       <c r="BK9" s="1">
-        <v>1701.240000</v>
+        <v>1701.24</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1048.140000</v>
+        <v>-1048.1400000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>79717.834644</v>
+        <v>79717.834644000002</v>
       </c>
       <c r="BO9" s="1">
         <v>22.143843</v>
       </c>
       <c r="BP9" s="1">
-        <v>1997.190000</v>
+        <v>1997.19</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1805.890000</v>
+        <v>-1805.89</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>79728.347876</v>
@@ -2490,1133 +2906,1133 @@
         <v>22.146763</v>
       </c>
       <c r="BU9" s="1">
-        <v>2382.560000</v>
+        <v>2382.56</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2676.380000</v>
+        <v>-2676.38</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>79739.539110</v>
+        <v>79739.539109999998</v>
       </c>
       <c r="BY9" s="1">
-        <v>22.149872</v>
+        <v>22.149871999999998</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2865.590000</v>
+        <v>2865.59</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3626.370000</v>
+        <v>-3626.37</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>79751.044278</v>
+        <v>79751.044278000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>22.153068</v>
+        <v>22.153068000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>4274.360000</v>
+        <v>4274.3599999999997</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5893.930000</v>
+        <v>-5893.93</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>79578.483628</v>
+        <v>79578.483628000002</v>
       </c>
       <c r="B10" s="1">
         <v>22.105134</v>
       </c>
       <c r="C10" s="1">
-        <v>1249.750000</v>
+        <v>1249.75</v>
       </c>
       <c r="D10" s="1">
-        <v>-307.178000</v>
+        <v>-307.178</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>79588.977485</v>
+        <v>79588.977484999996</v>
       </c>
       <c r="G10" s="1">
-        <v>22.108049</v>
+        <v>22.108049000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1275.260000</v>
+        <v>1275.26</v>
       </c>
       <c r="I10" s="1">
-        <v>-265.142000</v>
+        <v>-265.142</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>79599.453984</v>
+        <v>79599.453984000007</v>
       </c>
       <c r="L10" s="1">
-        <v>22.110959</v>
+        <v>22.110959000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1312.450000</v>
+        <v>1312.45</v>
       </c>
       <c r="N10" s="1">
-        <v>-204.401000</v>
+        <v>-204.40100000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>79609.982593</v>
+        <v>79609.982592999993</v>
       </c>
       <c r="Q10" s="1">
-        <v>22.113884</v>
+        <v>22.113883999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1324.550000</v>
+        <v>1324.55</v>
       </c>
       <c r="S10" s="1">
-        <v>-186.641000</v>
+        <v>-186.64099999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>79620.497252</v>
+        <v>79620.497252000001</v>
       </c>
       <c r="V10" s="1">
-        <v>22.116805</v>
+        <v>22.116804999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1338.210000</v>
+        <v>1338.21</v>
       </c>
       <c r="X10" s="1">
-        <v>-172.949000</v>
+        <v>-172.94900000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>79630.990149</v>
+        <v>79630.990149000005</v>
       </c>
       <c r="AA10" s="1">
         <v>22.119719</v>
       </c>
       <c r="AB10" s="1">
-        <v>1356.180000</v>
+        <v>1356.18</v>
       </c>
       <c r="AC10" s="1">
-        <v>-170.971000</v>
+        <v>-170.971</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>79641.959671</v>
+        <v>79641.959671000004</v>
       </c>
       <c r="AF10" s="1">
         <v>22.122767</v>
       </c>
       <c r="AG10" s="1">
-        <v>1369.700000</v>
+        <v>1369.7</v>
       </c>
       <c r="AH10" s="1">
-        <v>-180.668000</v>
+        <v>-180.66800000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>79652.593864</v>
+        <v>79652.593863999995</v>
       </c>
       <c r="AK10" s="1">
-        <v>22.125721</v>
+        <v>22.125720999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1391.180000</v>
+        <v>1391.18</v>
       </c>
       <c r="AM10" s="1">
-        <v>-210.219000</v>
+        <v>-210.21899999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>79663.055482</v>
+        <v>79663.055481999996</v>
       </c>
       <c r="AP10" s="1">
-        <v>22.128627</v>
+        <v>22.128627000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1413.600000</v>
+        <v>1413.6</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.561000</v>
+        <v>-253.56100000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>79674.097916</v>
+        <v>79674.097915999999</v>
       </c>
       <c r="AU10" s="1">
         <v>22.131694</v>
       </c>
       <c r="AV10" s="1">
-        <v>1438.840000</v>
+        <v>1438.84</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.845000</v>
+        <v>-312.84500000000003</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>79685.236574</v>
+        <v>79685.236573999995</v>
       </c>
       <c r="AZ10" s="1">
         <v>22.134788</v>
       </c>
       <c r="BA10" s="1">
-        <v>1458.640000</v>
+        <v>1458.64</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.290000</v>
+        <v>-364.29</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>79696.219487</v>
+        <v>79696.219486999995</v>
       </c>
       <c r="BE10" s="1">
         <v>22.137839</v>
       </c>
       <c r="BF10" s="1">
-        <v>1545.260000</v>
+        <v>1545.26</v>
       </c>
       <c r="BG10" s="1">
-        <v>-609.440000</v>
+        <v>-609.44000000000005</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>79707.365584</v>
+        <v>79707.365583999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>22.140935</v>
+        <v>22.140934999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1701.220000</v>
+        <v>1701.22</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1048.200000</v>
+        <v>-1048.2</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>79718.256738</v>
+        <v>79718.256737999996</v>
       </c>
       <c r="BO10" s="1">
-        <v>22.143960</v>
+        <v>22.14396</v>
       </c>
       <c r="BP10" s="1">
-        <v>1997.130000</v>
+        <v>1997.13</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1805.960000</v>
+        <v>-1805.96</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>79728.754076</v>
+        <v>79728.754075999997</v>
       </c>
       <c r="BT10" s="1">
-        <v>22.146876</v>
+        <v>22.146875999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>2382.710000</v>
+        <v>2382.71</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2676.650000</v>
+        <v>-2676.65</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>79739.960181</v>
+        <v>79739.960181000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>22.149989</v>
+        <v>22.149989000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2866.830000</v>
+        <v>2866.83</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3626.390000</v>
+        <v>-3626.39</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>79751.562630</v>
+        <v>79751.56263</v>
       </c>
       <c r="CD10" s="1">
         <v>22.153212</v>
       </c>
       <c r="CE10" s="1">
-        <v>4275.130000</v>
+        <v>4275.13</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5897.160000</v>
+        <v>-5897.16</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>79578.852650</v>
+        <v>79578.852650000001</v>
       </c>
       <c r="B11" s="1">
-        <v>22.105237</v>
+        <v>22.105236999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1249.780000</v>
+        <v>1249.78</v>
       </c>
       <c r="D11" s="1">
-        <v>-306.833000</v>
+        <v>-306.83300000000003</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>79589.327197</v>
+        <v>79589.327197000006</v>
       </c>
       <c r="G11" s="1">
-        <v>22.108146</v>
+        <v>22.108146000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1276.230000</v>
+        <v>1276.23</v>
       </c>
       <c r="I11" s="1">
-        <v>-265.025000</v>
+        <v>-265.02499999999998</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>79599.799695</v>
+        <v>79599.799694999994</v>
       </c>
       <c r="L11" s="1">
         <v>22.111055</v>
       </c>
       <c r="M11" s="1">
-        <v>1312.090000</v>
+        <v>1312.09</v>
       </c>
       <c r="N11" s="1">
-        <v>-204.399000</v>
+        <v>-204.399</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>79610.330257</v>
+        <v>79610.330256999994</v>
       </c>
       <c r="Q11" s="1">
-        <v>22.113981</v>
+        <v>22.113980999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1324.490000</v>
+        <v>1324.49</v>
       </c>
       <c r="S11" s="1">
-        <v>-186.584000</v>
+        <v>-186.584</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>79620.930259</v>
+        <v>79620.930259000001</v>
       </c>
       <c r="V11" s="1">
-        <v>22.116925</v>
+        <v>22.116924999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>1338.190000</v>
+        <v>1338.19</v>
       </c>
       <c r="X11" s="1">
-        <v>-173.020000</v>
+        <v>-173.02</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>79631.413702</v>
+        <v>79631.413702000005</v>
       </c>
       <c r="AA11" s="1">
         <v>22.119837</v>
       </c>
       <c r="AB11" s="1">
-        <v>1356.230000</v>
+        <v>1356.23</v>
       </c>
       <c r="AC11" s="1">
-        <v>-171.049000</v>
+        <v>-171.04900000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>79642.238886</v>
+        <v>79642.238886000006</v>
       </c>
       <c r="AF11" s="1">
-        <v>22.122844</v>
+        <v>22.122844000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1369.660000</v>
+        <v>1369.66</v>
       </c>
       <c r="AH11" s="1">
-        <v>-180.656000</v>
+        <v>-180.65600000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>79652.730265</v>
+        <v>79652.730265000006</v>
       </c>
       <c r="AK11" s="1">
-        <v>22.125758</v>
+        <v>22.125758000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1391.130000</v>
+        <v>1391.13</v>
       </c>
       <c r="AM11" s="1">
-        <v>-210.234000</v>
+        <v>-210.23400000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>79663.415578</v>
       </c>
       <c r="AP11" s="1">
-        <v>22.128727</v>
+        <v>22.128727000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1413.580000</v>
+        <v>1413.58</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.604000</v>
+        <v>-253.60400000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>79674.462972</v>
+        <v>79674.462971999994</v>
       </c>
       <c r="AU11" s="1">
         <v>22.131795</v>
       </c>
       <c r="AV11" s="1">
-        <v>1438.840000</v>
+        <v>1438.84</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.830000</v>
+        <v>-312.83</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>79685.596669</v>
+        <v>79685.596669000006</v>
       </c>
       <c r="AZ11" s="1">
         <v>22.134888</v>
       </c>
       <c r="BA11" s="1">
-        <v>1458.640000</v>
+        <v>1458.64</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.302000</v>
+        <v>-364.30200000000002</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>79696.942654</v>
+        <v>79696.942653999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>22.138040</v>
+        <v>22.13804</v>
       </c>
       <c r="BF11" s="1">
-        <v>1545.270000</v>
+        <v>1545.27</v>
       </c>
       <c r="BG11" s="1">
-        <v>-609.403000</v>
+        <v>-609.40300000000002</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>79707.740591</v>
+        <v>79707.740590999994</v>
       </c>
       <c r="BJ11" s="1">
-        <v>22.141039</v>
+        <v>22.141038999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1701.150000</v>
+        <v>1701.15</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1048.100000</v>
+        <v>-1048.0999999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>79718.654033</v>
+        <v>79718.654032999999</v>
       </c>
       <c r="BO11" s="1">
         <v>22.144071</v>
       </c>
       <c r="BP11" s="1">
-        <v>1997.210000</v>
+        <v>1997.21</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1806.010000</v>
+        <v>-1806.01</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>79729.186616</v>
+        <v>79729.186616000006</v>
       </c>
       <c r="BT11" s="1">
-        <v>22.146996</v>
+        <v>22.146996000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>2382.280000</v>
+        <v>2382.2800000000002</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2677.230000</v>
+        <v>-2677.23</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>79740.695288</v>
+        <v>79740.695288000003</v>
       </c>
       <c r="BY11" s="1">
-        <v>22.150193</v>
+        <v>22.150193000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2866.200000</v>
+        <v>2866.2</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3625.730000</v>
+        <v>-3625.73</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>79752.443990</v>
+        <v>79752.44399</v>
       </c>
       <c r="CD11" s="1">
         <v>22.153457</v>
       </c>
       <c r="CE11" s="1">
-        <v>4277.480000</v>
+        <v>4277.4799999999996</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5907.630000</v>
+        <v>-5907.63</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>79579.195385</v>
+        <v>79579.195384999999</v>
       </c>
       <c r="B12" s="1">
-        <v>22.105332</v>
+        <v>22.105332000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1249.910000</v>
+        <v>1249.9100000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-307.110000</v>
+        <v>-307.11</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>79589.670686</v>
+        <v>79589.670685999998</v>
       </c>
       <c r="G12" s="1">
-        <v>22.108242</v>
+        <v>22.108242000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1275.340000</v>
+        <v>1275.3399999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-266.136000</v>
+        <v>-266.13600000000002</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>79600.149374</v>
+        <v>79600.149374000001</v>
       </c>
       <c r="L12" s="1">
-        <v>22.111153</v>
+        <v>22.111153000000002</v>
       </c>
       <c r="M12" s="1">
-        <v>1312.240000</v>
+        <v>1312.24</v>
       </c>
       <c r="N12" s="1">
-        <v>-204.726000</v>
+        <v>-204.726</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>79610.756828</v>
+        <v>79610.756827999998</v>
       </c>
       <c r="Q12" s="1">
         <v>22.114099</v>
       </c>
       <c r="R12" s="1">
-        <v>1324.560000</v>
+        <v>1324.56</v>
       </c>
       <c r="S12" s="1">
-        <v>-186.526000</v>
+        <v>-186.52600000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>79621.194162</v>
       </c>
       <c r="V12" s="1">
-        <v>22.116998</v>
+        <v>22.116997999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1338.290000</v>
+        <v>1338.29</v>
       </c>
       <c r="X12" s="1">
-        <v>-173.140000</v>
+        <v>-173.14</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>79631.702868</v>
+        <v>79631.702867999993</v>
       </c>
       <c r="AA12" s="1">
-        <v>22.119917</v>
+        <v>22.119917000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1356.300000</v>
+        <v>1356.3</v>
       </c>
       <c r="AC12" s="1">
-        <v>-170.934000</v>
+        <v>-170.934</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>79642.585618</v>
+        <v>79642.585617999997</v>
       </c>
       <c r="AF12" s="1">
-        <v>22.122940</v>
+        <v>22.12294</v>
       </c>
       <c r="AG12" s="1">
-        <v>1369.610000</v>
+        <v>1369.61</v>
       </c>
       <c r="AH12" s="1">
-        <v>-180.667000</v>
+        <v>-180.667</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>79653.079944</v>
+        <v>79653.079943999997</v>
       </c>
       <c r="AK12" s="1">
-        <v>22.125856</v>
+        <v>22.125855999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1391.170000</v>
+        <v>1391.17</v>
       </c>
       <c r="AM12" s="1">
-        <v>-210.216000</v>
+        <v>-210.21600000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>79663.777194</v>
+        <v>79663.777193999995</v>
       </c>
       <c r="AP12" s="1">
-        <v>22.128827</v>
+        <v>22.128827000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1413.550000</v>
+        <v>1413.55</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.568000</v>
+        <v>-253.56800000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>79675.190635</v>
+        <v>79675.190635000006</v>
       </c>
       <c r="AU12" s="1">
-        <v>22.131997</v>
+        <v>22.131996999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>1438.840000</v>
+        <v>1438.84</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.830000</v>
+        <v>-312.83</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>79686.309916</v>
+        <v>79686.309915999998</v>
       </c>
       <c r="AZ12" s="1">
-        <v>22.135086</v>
+        <v>22.135086000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1458.620000</v>
+        <v>1458.62</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.243000</v>
+        <v>-364.24299999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>79697.302784</v>
       </c>
       <c r="BE12" s="1">
-        <v>22.138140</v>
+        <v>22.13814</v>
       </c>
       <c r="BF12" s="1">
-        <v>1545.290000</v>
+        <v>1545.29</v>
       </c>
       <c r="BG12" s="1">
-        <v>-609.408000</v>
+        <v>-609.40800000000002</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>79708.117023</v>
+        <v>79708.117022999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>22.141144</v>
+        <v>22.141144000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1701.180000</v>
+        <v>1701.18</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1048.150000</v>
+        <v>-1048.1500000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>79719.077617</v>
+        <v>79719.077617000003</v>
       </c>
       <c r="BO12" s="1">
         <v>22.144188</v>
       </c>
       <c r="BP12" s="1">
-        <v>1997.110000</v>
+        <v>1997.11</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1805.940000</v>
+        <v>-1805.94</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>79729.928596</v>
+        <v>79729.928595999998</v>
       </c>
       <c r="BT12" s="1">
         <v>22.147202</v>
       </c>
       <c r="BU12" s="1">
-        <v>2382.710000</v>
+        <v>2382.71</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2677.650000</v>
+        <v>-2677.65</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>79740.805861</v>
+        <v>79740.805861000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>22.150224</v>
+        <v>22.150224000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2865.820000</v>
+        <v>2865.82</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3625.870000</v>
+        <v>-3625.87</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>79752.647350</v>
+        <v>79752.647349999999</v>
       </c>
       <c r="CD12" s="1">
         <v>22.153513</v>
       </c>
       <c r="CE12" s="1">
-        <v>4270.560000</v>
+        <v>4270.5600000000004</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5891.140000</v>
+        <v>-5891.14</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>79579.539114</v>
+        <v>79579.539113999999</v>
       </c>
       <c r="B13" s="1">
         <v>22.105428</v>
       </c>
       <c r="C13" s="1">
-        <v>1249.780000</v>
+        <v>1249.78</v>
       </c>
       <c r="D13" s="1">
-        <v>-306.931000</v>
+        <v>-306.93099999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>79590.107867</v>
+        <v>79590.107866999999</v>
       </c>
       <c r="G13" s="1">
-        <v>22.108363</v>
+        <v>22.108363000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1275.850000</v>
+        <v>1275.8499999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-266.700000</v>
+        <v>-266.7</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>79600.599246</v>
+        <v>79600.599245999998</v>
       </c>
       <c r="L13" s="1">
-        <v>22.111278</v>
+        <v>22.111277999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1312.040000</v>
+        <v>1312.04</v>
       </c>
       <c r="N13" s="1">
-        <v>-204.375000</v>
+        <v>-204.375</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>79611.018217</v>
+        <v>79611.018217000004</v>
       </c>
       <c r="Q13" s="1">
         <v>22.114172</v>
       </c>
       <c r="R13" s="1">
-        <v>1324.590000</v>
+        <v>1324.59</v>
       </c>
       <c r="S13" s="1">
-        <v>-186.520000</v>
+        <v>-186.52</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>79621.537394</v>
+        <v>79621.537393999999</v>
       </c>
       <c r="V13" s="1">
-        <v>22.117094</v>
+        <v>22.117094000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>1338.160000</v>
+        <v>1338.16</v>
       </c>
       <c r="X13" s="1">
-        <v>-173.225000</v>
+        <v>-173.22499999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>79632.051095</v>
+        <v>79632.051095000003</v>
       </c>
       <c r="AA13" s="1">
-        <v>22.120014</v>
+        <v>22.120014000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1356.260000</v>
+        <v>1356.26</v>
       </c>
       <c r="AC13" s="1">
-        <v>-170.891000</v>
+        <v>-170.89099999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>79642.925881</v>
+        <v>79642.925881000003</v>
       </c>
       <c r="AF13" s="1">
-        <v>22.123035</v>
+        <v>22.123035000000002</v>
       </c>
       <c r="AG13" s="1">
-        <v>1369.660000</v>
+        <v>1369.66</v>
       </c>
       <c r="AH13" s="1">
-        <v>-180.609000</v>
+        <v>-180.60900000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>79653.773848</v>
+        <v>79653.773847999997</v>
       </c>
       <c r="AK13" s="1">
-        <v>22.126048</v>
+        <v>22.126048000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1391.190000</v>
+        <v>1391.19</v>
       </c>
       <c r="AM13" s="1">
-        <v>-210.239000</v>
+        <v>-210.239</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>79664.498873</v>
+        <v>79664.498873000004</v>
       </c>
       <c r="AP13" s="1">
-        <v>22.129027</v>
+        <v>22.129027000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1413.540000</v>
+        <v>1413.54</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.568000</v>
+        <v>-253.56800000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>79675.581450</v>
+        <v>79675.581449999998</v>
       </c>
       <c r="AU13" s="1">
         <v>22.132106</v>
       </c>
       <c r="AV13" s="1">
-        <v>1438.830000</v>
+        <v>1438.83</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.812000</v>
+        <v>-312.81200000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>79686.658109</v>
+        <v>79686.658108999996</v>
       </c>
       <c r="AZ13" s="1">
-        <v>22.135183</v>
+        <v>22.135183000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1458.610000</v>
+        <v>1458.61</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.285000</v>
+        <v>-364.28500000000003</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>79697.663837</v>
       </c>
       <c r="BE13" s="1">
-        <v>22.138240</v>
+        <v>22.13824</v>
       </c>
       <c r="BF13" s="1">
-        <v>1545.280000</v>
+        <v>1545.28</v>
       </c>
       <c r="BG13" s="1">
-        <v>-609.420000</v>
+        <v>-609.41999999999996</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>79708.804478</v>
+        <v>79708.804478000005</v>
       </c>
       <c r="BJ13" s="1">
-        <v>22.141335</v>
+        <v>22.141335000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1701.200000</v>
+        <v>1701.2</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1048.130000</v>
+        <v>-1048.1300000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>79719.786400</v>
+        <v>79719.786399999997</v>
       </c>
       <c r="BO13" s="1">
         <v>22.144385</v>
       </c>
       <c r="BP13" s="1">
-        <v>1997.150000</v>
+        <v>1997.15</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1806.080000</v>
+        <v>-1806.08</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>79730.060530</v>
+        <v>79730.060530000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>22.147239</v>
+        <v>22.147238999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>2382.200000</v>
+        <v>2382.1999999999998</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2678.370000</v>
+        <v>-2678.37</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>79741.238371</v>
+        <v>79741.238370999999</v>
       </c>
       <c r="BY13" s="1">
         <v>22.150344</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2865.940000</v>
+        <v>2865.94</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3626.430000</v>
+        <v>-3626.43</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>79753.161204</v>
+        <v>79753.161204000004</v>
       </c>
       <c r="CD13" s="1">
-        <v>22.153656</v>
+        <v>22.153656000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>4256.240000</v>
+        <v>4256.24</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5901.040000</v>
+        <v>-5901.04</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>79579.969640</v>
+        <v>79579.969639999996</v>
       </c>
       <c r="B14" s="1">
-        <v>22.105547</v>
+        <v>22.105547000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1249.650000</v>
+        <v>1249.6500000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-306.776000</v>
+        <v>-306.77600000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>79590.366779</v>
+        <v>79590.366779000004</v>
       </c>
       <c r="G14" s="1">
         <v>22.108435</v>
       </c>
       <c r="H14" s="1">
-        <v>1275.040000</v>
+        <v>1275.04</v>
       </c>
       <c r="I14" s="1">
-        <v>-266.519000</v>
+        <v>-266.51900000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>79600.850718</v>
+        <v>79600.850718000002</v>
       </c>
       <c r="L14" s="1">
-        <v>22.111347</v>
+        <v>22.111346999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1312.190000</v>
+        <v>1312.19</v>
       </c>
       <c r="N14" s="1">
-        <v>-204.506000</v>
+        <v>-204.506</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>79611.375823</v>
+        <v>79611.375822999995</v>
       </c>
       <c r="Q14" s="1">
-        <v>22.114271</v>
+        <v>22.114270999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1324.580000</v>
+        <v>1324.58</v>
       </c>
       <c r="S14" s="1">
-        <v>-186.497000</v>
+        <v>-186.49700000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>79621.879105</v>
@@ -3625,3279 +4041,3280 @@
         <v>22.117189</v>
       </c>
       <c r="W14" s="1">
-        <v>1338.180000</v>
+        <v>1338.18</v>
       </c>
       <c r="X14" s="1">
-        <v>-173.074000</v>
+        <v>-173.07400000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>79632.398755</v>
+        <v>79632.398755000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>22.120111</v>
+        <v>22.120111000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1356.230000</v>
+        <v>1356.23</v>
       </c>
       <c r="AC14" s="1">
-        <v>-170.822000</v>
+        <v>-170.822</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>79643.614788</v>
+        <v>79643.614788000006</v>
       </c>
       <c r="AF14" s="1">
-        <v>22.123226</v>
+        <v>22.123225999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1369.680000</v>
+        <v>1369.68</v>
       </c>
       <c r="AH14" s="1">
-        <v>-180.519000</v>
+        <v>-180.51900000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>79654.123067</v>
+        <v>79654.123066999993</v>
       </c>
       <c r="AK14" s="1">
-        <v>22.126145</v>
+        <v>22.126145000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1391.160000</v>
+        <v>1391.16</v>
       </c>
       <c r="AM14" s="1">
-        <v>-210.224000</v>
+        <v>-210.22399999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>79664.856952</v>
+        <v>79664.856952000002</v>
       </c>
       <c r="AP14" s="1">
         <v>22.129127</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1413.570000</v>
+        <v>1413.57</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.551000</v>
+        <v>-253.55099999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>79675.943531</v>
+        <v>79675.943530999997</v>
       </c>
       <c r="AU14" s="1">
-        <v>22.132207</v>
+        <v>22.132207000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1438.820000</v>
+        <v>1438.82</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.790000</v>
+        <v>-312.79000000000002</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>79687.351514</v>
+        <v>79687.351513999994</v>
       </c>
       <c r="AZ14" s="1">
         <v>22.135375</v>
       </c>
       <c r="BA14" s="1">
-        <v>1458.620000</v>
+        <v>1458.62</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.300000</v>
+        <v>-364.3</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>79698.335420</v>
+        <v>79698.335420000003</v>
       </c>
       <c r="BE14" s="1">
         <v>22.138427</v>
       </c>
       <c r="BF14" s="1">
-        <v>1545.270000</v>
+        <v>1545.27</v>
       </c>
       <c r="BG14" s="1">
-        <v>-609.390000</v>
+        <v>-609.39</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>79709.242447</v>
+        <v>79709.242446999997</v>
       </c>
       <c r="BJ14" s="1">
-        <v>22.141456</v>
+        <v>22.141456000000002</v>
       </c>
       <c r="BK14" s="1">
-        <v>1701.150000</v>
+        <v>1701.15</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1048.050000</v>
+        <v>-1048.05</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>79719.913375</v>
+        <v>79719.913375000004</v>
       </c>
       <c r="BO14" s="1">
-        <v>22.144420</v>
+        <v>22.14442</v>
       </c>
       <c r="BP14" s="1">
-        <v>1997.140000</v>
+        <v>1997.14</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1805.940000</v>
+        <v>-1805.94</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>79730.474698</v>
+        <v>79730.474698000005</v>
       </c>
       <c r="BT14" s="1">
         <v>22.147354</v>
       </c>
       <c r="BU14" s="1">
-        <v>2382.590000</v>
+        <v>2382.59</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2678.580000</v>
+        <v>-2678.58</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>79741.660995</v>
+        <v>79741.660994999998</v>
       </c>
       <c r="BY14" s="1">
         <v>22.150461</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2866.670000</v>
+        <v>2866.67</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3625.460000</v>
+        <v>-3625.46</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>79753.701384</v>
       </c>
       <c r="CD14" s="1">
-        <v>22.153806</v>
+        <v>22.153805999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>4269.320000</v>
+        <v>4269.32</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5911.870000</v>
+        <v>-5911.87</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>79580.239497</v>
+        <v>79580.239497000002</v>
       </c>
       <c r="B15" s="1">
         <v>22.105622</v>
       </c>
       <c r="C15" s="1">
-        <v>1249.950000</v>
+        <v>1249.95</v>
       </c>
       <c r="D15" s="1">
-        <v>-306.907000</v>
+        <v>-306.90699999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>79590.711004</v>
+        <v>79590.711003999997</v>
       </c>
       <c r="G15" s="1">
-        <v>22.108531</v>
+        <v>22.108530999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1275.890000</v>
+        <v>1275.8900000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-266.432000</v>
+        <v>-266.43200000000002</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>79601.194941</v>
+        <v>79601.194940999994</v>
       </c>
       <c r="L15" s="1">
-        <v>22.111443</v>
+        <v>22.111443000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1312.330000</v>
+        <v>1312.33</v>
       </c>
       <c r="N15" s="1">
-        <v>-204.480000</v>
+        <v>-204.48</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>79611.725503</v>
+        <v>79611.725502999994</v>
       </c>
       <c r="Q15" s="1">
-        <v>22.114368</v>
+        <v>22.114367999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>1324.570000</v>
+        <v>1324.57</v>
       </c>
       <c r="S15" s="1">
-        <v>-186.625000</v>
+        <v>-186.625</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>79622.568544</v>
+        <v>79622.568543999994</v>
       </c>
       <c r="V15" s="1">
-        <v>22.117380</v>
+        <v>22.117380000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1338.250000</v>
+        <v>1338.25</v>
       </c>
       <c r="X15" s="1">
-        <v>-173.179000</v>
+        <v>-173.179</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>79633.097618</v>
       </c>
       <c r="AA15" s="1">
-        <v>22.120305</v>
+        <v>22.120304999999998</v>
       </c>
       <c r="AB15" s="1">
-        <v>1356.240000</v>
+        <v>1356.24</v>
       </c>
       <c r="AC15" s="1">
-        <v>-170.785000</v>
+        <v>-170.785</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>79643.957524</v>
+        <v>79643.957523999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>22.123322</v>
+        <v>22.123322000000002</v>
       </c>
       <c r="AG15" s="1">
-        <v>1369.660000</v>
+        <v>1369.66</v>
       </c>
       <c r="AH15" s="1">
-        <v>-180.602000</v>
+        <v>-180.602</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>79654.472710</v>
+        <v>79654.472710000002</v>
       </c>
       <c r="AK15" s="1">
-        <v>22.126242</v>
+        <v>22.126242000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1391.150000</v>
+        <v>1391.15</v>
       </c>
       <c r="AM15" s="1">
-        <v>-210.168000</v>
+        <v>-210.16800000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>79665.217048</v>
+        <v>79665.217048000006</v>
       </c>
       <c r="AP15" s="1">
         <v>22.129227</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1413.560000</v>
+        <v>1413.56</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.561000</v>
+        <v>-253.56100000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>79676.632473</v>
+        <v>79676.632473000005</v>
       </c>
       <c r="AU15" s="1">
-        <v>22.132398</v>
+        <v>22.132397999999998</v>
       </c>
       <c r="AV15" s="1">
-        <v>1438.850000</v>
+        <v>1438.85</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.824000</v>
+        <v>-312.82400000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>79687.763691</v>
       </c>
       <c r="AZ15" s="1">
-        <v>22.135490</v>
+        <v>22.135490000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1458.610000</v>
+        <v>1458.61</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.313000</v>
+        <v>-364.31299999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>79698.781340</v>
+        <v>79698.781340000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>22.138550</v>
+        <v>22.138549999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1545.270000</v>
+        <v>1545.27</v>
       </c>
       <c r="BG15" s="1">
-        <v>-609.411000</v>
+        <v>-609.41099999999994</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>79709.618909</v>
+        <v>79709.618908999997</v>
       </c>
       <c r="BJ15" s="1">
-        <v>22.141561</v>
+        <v>22.141560999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1701.160000</v>
+        <v>1701.16</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1048.120000</v>
+        <v>-1048.1199999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>79720.285873</v>
+        <v>79720.285873000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>22.144524</v>
+        <v>22.144524000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1997.100000</v>
+        <v>1997.1</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1805.760000</v>
+        <v>-1805.76</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>79730.899763</v>
+        <v>79730.899762999994</v>
       </c>
       <c r="BT15" s="1">
         <v>22.147472</v>
       </c>
       <c r="BU15" s="1">
-        <v>2382.910000</v>
+        <v>2382.91</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2679.030000</v>
+        <v>-2679.03</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>79742.090994</v>
+        <v>79742.090993999998</v>
       </c>
       <c r="BY15" s="1">
-        <v>22.150581</v>
+        <v>22.150580999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2865.440000</v>
+        <v>2865.44</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3625.600000</v>
+        <v>-3625.6</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>79754.195362</v>
+        <v>79754.195361999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>22.153943</v>
+        <v>22.153943000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>4262.340000</v>
+        <v>4262.34</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5913.440000</v>
+        <v>-5913.44</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>79580.580216</v>
+        <v>79580.580216000002</v>
       </c>
       <c r="B16" s="1">
-        <v>22.105717</v>
+        <v>22.105716999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1249.520000</v>
+        <v>1249.52</v>
       </c>
       <c r="D16" s="1">
-        <v>-306.984000</v>
+        <v>-306.98399999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>79591.056251</v>
+        <v>79591.056251000002</v>
       </c>
       <c r="G16" s="1">
-        <v>22.108627</v>
+        <v>22.108626999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>1274.990000</v>
+        <v>1274.99</v>
       </c>
       <c r="I16" s="1">
-        <v>-266.400000</v>
+        <v>-266.39999999999998</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>79601.873468</v>
+        <v>79601.873468000005</v>
       </c>
       <c r="L16" s="1">
         <v>22.111632</v>
       </c>
       <c r="M16" s="1">
-        <v>1312.170000</v>
+        <v>1312.17</v>
       </c>
       <c r="N16" s="1">
-        <v>-204.532000</v>
+        <v>-204.53200000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>79612.423374</v>
+        <v>79612.423374000005</v>
       </c>
       <c r="Q16" s="1">
-        <v>22.114562</v>
+        <v>22.114561999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1324.530000</v>
+        <v>1324.53</v>
       </c>
       <c r="S16" s="1">
-        <v>-186.608000</v>
+        <v>-186.608</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>79622.909791</v>
+        <v>79622.909790999998</v>
       </c>
       <c r="V16" s="1">
-        <v>22.117475</v>
+        <v>22.117474999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1338.060000</v>
+        <v>1338.06</v>
       </c>
       <c r="X16" s="1">
-        <v>-173.061000</v>
+        <v>-173.06100000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>79633.444818</v>
+        <v>79633.444818000004</v>
       </c>
       <c r="AA16" s="1">
-        <v>22.120401</v>
+        <v>22.120401000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1356.140000</v>
+        <v>1356.14</v>
       </c>
       <c r="AC16" s="1">
-        <v>-170.979000</v>
+        <v>-170.97900000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>79644.299764</v>
+        <v>79644.299763999996</v>
       </c>
       <c r="AF16" s="1">
         <v>22.123417</v>
       </c>
       <c r="AG16" s="1">
-        <v>1369.690000</v>
+        <v>1369.69</v>
       </c>
       <c r="AH16" s="1">
-        <v>-180.690000</v>
+        <v>-180.69</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>79655.131470</v>
+        <v>79655.131469999993</v>
       </c>
       <c r="AK16" s="1">
-        <v>22.126425</v>
+        <v>22.126425000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1391.190000</v>
+        <v>1391.19</v>
       </c>
       <c r="AM16" s="1">
-        <v>-210.215000</v>
+        <v>-210.215</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>79665.892136</v>
+        <v>79665.892135999995</v>
       </c>
       <c r="AP16" s="1">
-        <v>22.129414</v>
+        <v>22.129414000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1413.570000</v>
+        <v>1413.57</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.555000</v>
+        <v>-253.55500000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>79677.069449</v>
+        <v>79677.069449000002</v>
       </c>
       <c r="AU16" s="1">
-        <v>22.132519</v>
+        <v>22.132518999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>1438.860000</v>
+        <v>1438.86</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.831000</v>
+        <v>-312.83100000000002</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>79688.143627</v>
+        <v>79688.143626999998</v>
       </c>
       <c r="AZ16" s="1">
-        <v>22.135595</v>
+        <v>22.135594999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1458.580000</v>
+        <v>1458.58</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.266000</v>
+        <v>-364.26600000000002</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>79699.143899</v>
+        <v>79699.143899000002</v>
       </c>
       <c r="BE16" s="1">
-        <v>22.138651</v>
+        <v>22.138650999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1545.280000</v>
+        <v>1545.28</v>
       </c>
       <c r="BG16" s="1">
-        <v>-609.372000</v>
+        <v>-609.37199999999996</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>79709.995373</v>
+        <v>79709.995372999998</v>
       </c>
       <c r="BJ16" s="1">
         <v>22.141665</v>
       </c>
       <c r="BK16" s="1">
-        <v>1701.140000</v>
+        <v>1701.14</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1048.140000</v>
+        <v>-1048.1400000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>79720.860250</v>
+        <v>79720.860249999998</v>
       </c>
       <c r="BO16" s="1">
-        <v>22.144683</v>
+        <v>22.144683000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1996.980000</v>
+        <v>1996.98</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1806.010000</v>
+        <v>-1806.01</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>79731.329829</v>
+        <v>79731.329828999995</v>
       </c>
       <c r="BT16" s="1">
         <v>22.147592</v>
       </c>
       <c r="BU16" s="1">
-        <v>2383.420000</v>
+        <v>2383.42</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2679.420000</v>
+        <v>-2679.42</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>79742.509158</v>
+        <v>79742.509158000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>22.150697</v>
+        <v>22.150697000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2865.720000</v>
+        <v>2865.72</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3626.190000</v>
+        <v>-3626.19</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>79754.748434</v>
+        <v>79754.748433999994</v>
       </c>
       <c r="CD16" s="1">
         <v>22.154097</v>
       </c>
       <c r="CE16" s="1">
-        <v>4256.210000</v>
+        <v>4256.21</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5902.790000</v>
+        <v>-5902.79</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>79580.921959</v>
+        <v>79580.921958999999</v>
       </c>
       <c r="B17" s="1">
         <v>22.105812</v>
       </c>
       <c r="C17" s="1">
-        <v>1249.690000</v>
+        <v>1249.69</v>
       </c>
       <c r="D17" s="1">
-        <v>-307.008000</v>
+        <v>-307.00799999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>79591.750617</v>
+        <v>79591.750616999998</v>
       </c>
       <c r="G17" s="1">
-        <v>22.108820</v>
+        <v>22.108820000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1275.820000</v>
+        <v>1275.82</v>
       </c>
       <c r="I17" s="1">
-        <v>-265.990000</v>
+        <v>-265.99</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>79602.233563</v>
+        <v>79602.233563000002</v>
       </c>
       <c r="L17" s="1">
         <v>22.111732</v>
       </c>
       <c r="M17" s="1">
-        <v>1312.160000</v>
+        <v>1312.16</v>
       </c>
       <c r="N17" s="1">
-        <v>-204.586000</v>
+        <v>-204.58600000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>79612.771597</v>
+        <v>79612.771596999999</v>
       </c>
       <c r="Q17" s="1">
         <v>22.114659</v>
       </c>
       <c r="R17" s="1">
-        <v>1324.450000</v>
+        <v>1324.45</v>
       </c>
       <c r="S17" s="1">
-        <v>-186.575000</v>
+        <v>-186.57499999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>79623.255007</v>
       </c>
       <c r="V17" s="1">
-        <v>22.117571</v>
+        <v>22.117571000000002</v>
       </c>
       <c r="W17" s="1">
-        <v>1338.300000</v>
+        <v>1338.3</v>
       </c>
       <c r="X17" s="1">
-        <v>-172.998000</v>
+        <v>-172.99799999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>79633.795008</v>
+        <v>79633.795008000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>22.120499</v>
+        <v>22.120498999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1356.200000</v>
+        <v>1356.2</v>
       </c>
       <c r="AC17" s="1">
-        <v>-170.982000</v>
+        <v>-170.982</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>79644.959977</v>
+        <v>79644.959977000006</v>
       </c>
       <c r="AF17" s="1">
-        <v>22.123600</v>
+        <v>22.1236</v>
       </c>
       <c r="AG17" s="1">
-        <v>1369.680000</v>
+        <v>1369.68</v>
       </c>
       <c r="AH17" s="1">
-        <v>-180.561000</v>
+        <v>-180.56100000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>79655.518805</v>
       </c>
       <c r="AK17" s="1">
-        <v>22.126533</v>
+        <v>22.126532999999998</v>
       </c>
       <c r="AL17" s="1">
-        <v>1391.120000</v>
+        <v>1391.12</v>
       </c>
       <c r="AM17" s="1">
-        <v>-210.182000</v>
+        <v>-210.18199999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>79666.331065</v>
+        <v>79666.331065000006</v>
       </c>
       <c r="AP17" s="1">
-        <v>22.129536</v>
+        <v>22.129536000000002</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1413.580000</v>
+        <v>1413.58</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.544000</v>
+        <v>-253.54400000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>79677.437480</v>
+        <v>79677.437479999993</v>
       </c>
       <c r="AU17" s="1">
-        <v>22.132622</v>
+        <v>22.132622000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1438.830000</v>
+        <v>1438.83</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.835000</v>
+        <v>-312.83499999999998</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>79688.504746</v>
+        <v>79688.504746000006</v>
       </c>
       <c r="AZ17" s="1">
-        <v>22.135696</v>
+        <v>22.135695999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1458.620000</v>
+        <v>1458.62</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.279000</v>
+        <v>-364.279</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>79699.501515</v>
+        <v>79699.501514999996</v>
       </c>
       <c r="BE17" s="1">
-        <v>22.138750</v>
+        <v>22.138750000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1545.290000</v>
+        <v>1545.29</v>
       </c>
       <c r="BG17" s="1">
-        <v>-609.427000</v>
+        <v>-609.42700000000002</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>79710.431356</v>
+        <v>79710.431356000001</v>
       </c>
       <c r="BJ17" s="1">
         <v>22.141786</v>
       </c>
       <c r="BK17" s="1">
-        <v>1701.130000</v>
+        <v>1701.13</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1048.120000</v>
+        <v>-1048.1199999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>79721.105262</v>
+        <v>79721.105261999997</v>
       </c>
       <c r="BO17" s="1">
-        <v>22.144751</v>
+        <v>22.144750999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1997.090000</v>
+        <v>1997.09</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1805.920000</v>
+        <v>-1805.92</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>79731.733040</v>
+        <v>79731.733040000006</v>
       </c>
       <c r="BT17" s="1">
-        <v>22.147704</v>
+        <v>22.147704000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>2383.590000</v>
+        <v>2383.59</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2679.670000</v>
+        <v>-2679.67</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>79742.923281</v>
+        <v>79742.923280999996</v>
       </c>
       <c r="BY17" s="1">
-        <v>22.150812</v>
+        <v>22.150811999999998</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2865.670000</v>
+        <v>2865.67</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3625.540000</v>
+        <v>-3625.54</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>79755.278625</v>
+        <v>79755.278625000006</v>
       </c>
       <c r="CD17" s="1">
-        <v>22.154244</v>
+        <v>22.154243999999998</v>
       </c>
       <c r="CE17" s="1">
-        <v>4270.800000</v>
+        <v>4270.8</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5911.520000</v>
+        <v>-5911.52</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>79581.604627</v>
+        <v>79581.604626999993</v>
       </c>
       <c r="B18" s="1">
-        <v>22.106001</v>
+        <v>22.106000999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1249.750000</v>
+        <v>1249.75</v>
       </c>
       <c r="D18" s="1">
-        <v>-306.946000</v>
+        <v>-306.94600000000003</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>79592.097816</v>
+        <v>79592.097815999994</v>
       </c>
       <c r="G18" s="1">
-        <v>22.108916</v>
+        <v>22.108916000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1275.570000</v>
+        <v>1275.57</v>
       </c>
       <c r="I18" s="1">
-        <v>-265.308000</v>
+        <v>-265.30799999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>79602.577323</v>
+        <v>79602.577323000005</v>
       </c>
       <c r="L18" s="1">
-        <v>22.111827</v>
+        <v>22.111827000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>1312.220000</v>
+        <v>1312.22</v>
       </c>
       <c r="N18" s="1">
-        <v>-204.515000</v>
+        <v>-204.51499999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>79613.118611</v>
+        <v>79613.118610999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>22.114755</v>
+        <v>22.114754999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1324.490000</v>
+        <v>1324.49</v>
       </c>
       <c r="S18" s="1">
-        <v>-186.573000</v>
+        <v>-186.57300000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>79623.915710</v>
+        <v>79623.915710000001</v>
       </c>
       <c r="V18" s="1">
-        <v>22.117754</v>
+        <v>22.117754000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1337.940000</v>
+        <v>1337.94</v>
       </c>
       <c r="X18" s="1">
-        <v>-173.076000</v>
+        <v>-173.07599999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>79634.470544</v>
+        <v>79634.470543999996</v>
       </c>
       <c r="AA18" s="1">
-        <v>22.120686</v>
+        <v>22.120685999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1356.200000</v>
+        <v>1356.2</v>
       </c>
       <c r="AC18" s="1">
-        <v>-170.971000</v>
+        <v>-170.971</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>79645.332967</v>
+        <v>79645.332966999995</v>
       </c>
       <c r="AF18" s="1">
         <v>22.123704</v>
       </c>
       <c r="AG18" s="1">
-        <v>1369.670000</v>
+        <v>1369.67</v>
       </c>
       <c r="AH18" s="1">
-        <v>-180.541000</v>
+        <v>-180.541</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>79655.866468</v>
+        <v>79655.866467999993</v>
       </c>
       <c r="AK18" s="1">
-        <v>22.126630</v>
+        <v>22.126629999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1391.160000</v>
+        <v>1391.16</v>
       </c>
       <c r="AM18" s="1">
-        <v>-210.200000</v>
+        <v>-210.2</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>79666.690166</v>
       </c>
       <c r="AP18" s="1">
-        <v>22.129636</v>
+        <v>22.129636000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1413.560000</v>
+        <v>1413.56</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.565000</v>
+        <v>-253.565</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>79677.801050</v>
+        <v>79677.801049999995</v>
       </c>
       <c r="AU18" s="1">
-        <v>22.132723</v>
+        <v>22.132722999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1438.840000</v>
+        <v>1438.84</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.833000</v>
+        <v>-312.83300000000003</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>79688.928395</v>
+        <v>79688.928394999995</v>
       </c>
       <c r="AZ18" s="1">
-        <v>22.135813</v>
+        <v>22.135812999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1458.600000</v>
+        <v>1458.6</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.274000</v>
+        <v>-364.274</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>79699.924106</v>
+        <v>79699.924106000006</v>
       </c>
       <c r="BE18" s="1">
-        <v>22.138868</v>
+        <v>22.138867999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1545.260000</v>
+        <v>1545.26</v>
       </c>
       <c r="BG18" s="1">
-        <v>-609.406000</v>
+        <v>-609.40599999999995</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>79710.771613</v>
+        <v>79710.771613000004</v>
       </c>
       <c r="BJ18" s="1">
-        <v>22.141881</v>
+        <v>22.141881000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1701.150000</v>
+        <v>1701.15</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1048.060000</v>
+        <v>-1048.06</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>79721.527358</v>
+        <v>79721.527358000007</v>
       </c>
       <c r="BO18" s="1">
         <v>22.144869</v>
       </c>
       <c r="BP18" s="1">
-        <v>1997.050000</v>
+        <v>1997.05</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1805.940000</v>
+        <v>-1805.94</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>79732.144223</v>
+        <v>79732.144222999996</v>
       </c>
       <c r="BT18" s="1">
-        <v>22.147818</v>
+        <v>22.147818000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>2384.250000</v>
+        <v>2384.25</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2679.630000</v>
+        <v>-2679.63</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>79743.381090</v>
+        <v>79743.381089999995</v>
       </c>
       <c r="BY18" s="1">
-        <v>22.150939</v>
+        <v>22.150939000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2865.720000</v>
+        <v>2865.72</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3625.950000</v>
+        <v>-3625.95</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>79755.799921</v>
+        <v>79755.799920999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>22.154389</v>
+        <v>22.154388999999998</v>
       </c>
       <c r="CE18" s="1">
-        <v>4274.580000</v>
+        <v>4274.58</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5893.670000</v>
+        <v>-5893.67</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>79581.943718</v>
+        <v>79581.943717999995</v>
       </c>
       <c r="B19" s="1">
         <v>22.106095</v>
       </c>
       <c r="C19" s="1">
-        <v>1249.920000</v>
+        <v>1249.92</v>
       </c>
       <c r="D19" s="1">
-        <v>-307.109000</v>
+        <v>-307.10899999999998</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>79592.442073</v>
+        <v>79592.442072999998</v>
       </c>
       <c r="G19" s="1">
         <v>22.109012</v>
       </c>
       <c r="H19" s="1">
-        <v>1276.310000</v>
+        <v>1276.31</v>
       </c>
       <c r="I19" s="1">
-        <v>-266.351000</v>
+        <v>-266.351</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>79603.242458</v>
+        <v>79603.242457999993</v>
       </c>
       <c r="L19" s="1">
         <v>22.112012</v>
       </c>
       <c r="M19" s="1">
-        <v>1312.040000</v>
+        <v>1312.04</v>
       </c>
       <c r="N19" s="1">
-        <v>-204.316000</v>
+        <v>-204.316</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>79613.789853</v>
+        <v>79613.789852999995</v>
       </c>
       <c r="Q19" s="1">
-        <v>22.114942</v>
+        <v>22.114941999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1324.610000</v>
+        <v>1324.61</v>
       </c>
       <c r="S19" s="1">
-        <v>-186.523000</v>
+        <v>-186.523</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>79624.290158</v>
+        <v>79624.290158000003</v>
       </c>
       <c r="V19" s="1">
-        <v>22.117858</v>
+        <v>22.117857999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>1338.260000</v>
+        <v>1338.26</v>
       </c>
       <c r="X19" s="1">
-        <v>-173.086000</v>
+        <v>-173.08600000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>79634.841057</v>
+        <v>79634.841056999998</v>
       </c>
       <c r="AA19" s="1">
-        <v>22.120789</v>
+        <v>22.120788999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>1356.220000</v>
+        <v>1356.22</v>
       </c>
       <c r="AC19" s="1">
-        <v>-170.909000</v>
+        <v>-170.90899999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>79645.673682</v>
+        <v>79645.673681999993</v>
       </c>
       <c r="AF19" s="1">
-        <v>22.123798</v>
+        <v>22.123798000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1369.640000</v>
+        <v>1369.64</v>
       </c>
       <c r="AH19" s="1">
-        <v>-180.574000</v>
+        <v>-180.57400000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>79656.214706</v>
+        <v>79656.214705999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>22.126726</v>
+        <v>22.126726000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1391.160000</v>
+        <v>1391.16</v>
       </c>
       <c r="AM19" s="1">
-        <v>-210.227000</v>
+        <v>-210.227</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>79667.050757</v>
+        <v>79667.050757000005</v>
       </c>
       <c r="AP19" s="1">
-        <v>22.129736</v>
+        <v>22.129736000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1413.540000</v>
+        <v>1413.54</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.531000</v>
+        <v>-253.53100000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>79678.221159</v>
+        <v>79678.221158999993</v>
       </c>
       <c r="AU19" s="1">
-        <v>22.132839</v>
+        <v>22.132839000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1438.810000</v>
+        <v>1438.81</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.826000</v>
+        <v>-312.82600000000002</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>79689.219944</v>
+        <v>79689.219943999997</v>
       </c>
       <c r="AZ19" s="1">
         <v>22.135894</v>
       </c>
       <c r="BA19" s="1">
-        <v>1458.640000</v>
+        <v>1458.64</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.280000</v>
+        <v>-364.28</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>79700.225706</v>
+        <v>79700.225705999997</v>
       </c>
       <c r="BE19" s="1">
         <v>22.138952</v>
       </c>
       <c r="BF19" s="1">
-        <v>1545.270000</v>
+        <v>1545.27</v>
       </c>
       <c r="BG19" s="1">
-        <v>-609.401000</v>
+        <v>-609.40099999999995</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>79711.148075</v>
+        <v>79711.148075000005</v>
       </c>
       <c r="BJ19" s="1">
-        <v>22.141986</v>
+        <v>22.141985999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1701.080000</v>
+        <v>1701.08</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1048.070000</v>
+        <v>-1048.07</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>79721.923197</v>
+        <v>79721.923196999996</v>
       </c>
       <c r="BO19" s="1">
-        <v>22.144979</v>
+        <v>22.144978999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1996.850000</v>
+        <v>1996.85</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1805.810000</v>
+        <v>-1805.81</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>79732.562351</v>
       </c>
       <c r="BT19" s="1">
-        <v>22.147934</v>
+        <v>22.147933999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>2385.210000</v>
+        <v>2385.21</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2679.910000</v>
+        <v>-2679.91</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>79743.828989</v>
+        <v>79743.828989000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>22.151064</v>
+        <v>22.151064000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2866.260000</v>
+        <v>2866.26</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3626.250000</v>
+        <v>-3626.25</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>79756.314271</v>
+        <v>79756.314270999996</v>
       </c>
       <c r="CD19" s="1">
         <v>22.154532</v>
       </c>
       <c r="CE19" s="1">
-        <v>4257.120000</v>
+        <v>4257.12</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5893.640000</v>
+        <v>-5893.64</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>79582.288966</v>
+        <v>79582.288965999993</v>
       </c>
       <c r="B20" s="1">
-        <v>22.106191</v>
+        <v>22.106190999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1249.790000</v>
+        <v>1249.79</v>
       </c>
       <c r="D20" s="1">
-        <v>-307.010000</v>
+        <v>-307.01</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>79593.102215</v>
+        <v>79593.102215000006</v>
       </c>
       <c r="G20" s="1">
         <v>22.109195</v>
       </c>
       <c r="H20" s="1">
-        <v>1275.000000</v>
+        <v>1275</v>
       </c>
       <c r="I20" s="1">
-        <v>-266.603000</v>
+        <v>-266.60300000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>79603.617401</v>
+        <v>79603.617400999996</v>
       </c>
       <c r="L20" s="1">
         <v>22.112116</v>
       </c>
       <c r="M20" s="1">
-        <v>1312.130000</v>
+        <v>1312.13</v>
       </c>
       <c r="N20" s="1">
-        <v>-204.757000</v>
+        <v>-204.75700000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>79614.164863</v>
+        <v>79614.164862999998</v>
       </c>
       <c r="Q20" s="1">
         <v>22.115046</v>
       </c>
       <c r="R20" s="1">
-        <v>1324.540000</v>
+        <v>1324.54</v>
       </c>
       <c r="S20" s="1">
-        <v>-186.652000</v>
+        <v>-186.65199999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>79624.642318</v>
+        <v>79624.642317999998</v>
       </c>
       <c r="V20" s="1">
         <v>22.117956</v>
       </c>
       <c r="W20" s="1">
-        <v>1338.200000</v>
+        <v>1338.2</v>
       </c>
       <c r="X20" s="1">
-        <v>-173.137000</v>
+        <v>-173.137</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>79635.190772</v>
+        <v>79635.190772000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>22.120886</v>
+        <v>22.120885999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1356.280000</v>
+        <v>1356.28</v>
       </c>
       <c r="AC20" s="1">
-        <v>-170.902000</v>
+        <v>-170.90199999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>79646.019395</v>
+        <v>79646.019394999996</v>
       </c>
       <c r="AF20" s="1">
         <v>22.123894</v>
       </c>
       <c r="AG20" s="1">
-        <v>1369.640000</v>
+        <v>1369.64</v>
       </c>
       <c r="AH20" s="1">
-        <v>-180.583000</v>
+        <v>-180.583</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>79656.633283</v>
+        <v>79656.633283000003</v>
       </c>
       <c r="AK20" s="1">
-        <v>22.126843</v>
+        <v>22.126843000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1391.150000</v>
+        <v>1391.15</v>
       </c>
       <c r="AM20" s="1">
-        <v>-210.191000</v>
+        <v>-210.191</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>79667.475333</v>
+        <v>79667.475332999995</v>
       </c>
       <c r="AP20" s="1">
-        <v>22.129854</v>
+        <v>22.129854000000002</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1413.550000</v>
+        <v>1413.55</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.496000</v>
+        <v>-253.49600000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>79678.531654</v>
+        <v>79678.531654000006</v>
       </c>
       <c r="AU20" s="1">
         <v>22.132925</v>
       </c>
       <c r="AV20" s="1">
-        <v>1438.860000</v>
+        <v>1438.86</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.819000</v>
+        <v>-312.81900000000002</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>79689.580535</v>
+        <v>79689.580535000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>22.135995</v>
+        <v>22.135995000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1458.610000</v>
+        <v>1458.61</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.249000</v>
+        <v>-364.24900000000002</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>79700.585804</v>
+        <v>79700.585804000002</v>
       </c>
       <c r="BE20" s="1">
         <v>22.139052</v>
       </c>
       <c r="BF20" s="1">
-        <v>1545.250000</v>
+        <v>1545.25</v>
       </c>
       <c r="BG20" s="1">
-        <v>-609.397000</v>
+        <v>-609.39700000000005</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>79711.523548</v>
+        <v>79711.523547999997</v>
       </c>
       <c r="BJ20" s="1">
-        <v>22.142090</v>
+        <v>22.14209</v>
       </c>
       <c r="BK20" s="1">
-        <v>1701.160000</v>
+        <v>1701.16</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1048.110000</v>
+        <v>-1048.1099999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>79722.352206</v>
+        <v>79722.352205999996</v>
       </c>
       <c r="BO20" s="1">
-        <v>22.145098</v>
+        <v>22.145098000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1997.100000</v>
+        <v>1997.1</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1805.870000</v>
+        <v>-1805.87</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>79733.388228</v>
+        <v>79733.388227999996</v>
       </c>
       <c r="BT20" s="1">
         <v>22.148163</v>
       </c>
       <c r="BU20" s="1">
-        <v>2385.370000</v>
+        <v>2385.37</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2679.550000</v>
+        <v>-2679.55</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>79744.250577</v>
+        <v>79744.250576999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>22.151181</v>
+        <v>22.151181000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2865.770000</v>
+        <v>2865.77</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3625.900000</v>
+        <v>-3625.9</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>79756.833088</v>
+        <v>79756.833087999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>22.154676</v>
+        <v>22.154675999999998</v>
       </c>
       <c r="CE20" s="1">
-        <v>4259.040000</v>
+        <v>4259.04</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5909.120000</v>
+        <v>-5909.12</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>79582.944658</v>
+        <v>79582.944657999993</v>
       </c>
       <c r="B21" s="1">
-        <v>22.106374</v>
+        <v>22.106373999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1249.900000</v>
+        <v>1249.9000000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-307.086000</v>
+        <v>-307.08600000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>79593.475703</v>
+        <v>79593.475703000004</v>
       </c>
       <c r="G21" s="1">
         <v>22.109299</v>
       </c>
       <c r="H21" s="1">
-        <v>1275.760000</v>
+        <v>1275.76</v>
       </c>
       <c r="I21" s="1">
-        <v>-266.287000</v>
+        <v>-266.28699999999998</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>79603.961129</v>
+        <v>79603.961129000003</v>
       </c>
       <c r="L21" s="1">
-        <v>22.112211</v>
+        <v>22.112210999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1312.170000</v>
+        <v>1312.17</v>
       </c>
       <c r="N21" s="1">
-        <v>-204.384000</v>
+        <v>-204.38399999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>79614.513516</v>
+        <v>79614.513516000006</v>
       </c>
       <c r="Q21" s="1">
         <v>22.115143</v>
       </c>
       <c r="R21" s="1">
-        <v>1324.510000</v>
+        <v>1324.51</v>
       </c>
       <c r="S21" s="1">
-        <v>-186.637000</v>
+        <v>-186.637</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>79624.983576</v>
+        <v>79624.983575999999</v>
       </c>
       <c r="V21" s="1">
-        <v>22.118051</v>
+        <v>22.118051000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1338.210000</v>
+        <v>1338.21</v>
       </c>
       <c r="X21" s="1">
-        <v>-173.035000</v>
+        <v>-173.035</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>79635.539919</v>
+        <v>79635.539919000003</v>
       </c>
       <c r="AA21" s="1">
-        <v>22.120983</v>
+        <v>22.120982999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1356.230000</v>
+        <v>1356.23</v>
       </c>
       <c r="AC21" s="1">
-        <v>-170.903000</v>
+        <v>-170.90299999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>79646.475713</v>
+        <v>79646.475713000007</v>
       </c>
       <c r="AF21" s="1">
-        <v>22.124021</v>
+        <v>22.124020999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1369.680000</v>
+        <v>1369.68</v>
       </c>
       <c r="AH21" s="1">
-        <v>-180.621000</v>
+        <v>-180.62100000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>79656.914019</v>
+        <v>79656.914019000003</v>
       </c>
       <c r="AK21" s="1">
-        <v>22.126921</v>
+        <v>22.126920999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1391.190000</v>
+        <v>1391.19</v>
       </c>
       <c r="AM21" s="1">
-        <v>-210.181000</v>
+        <v>-210.18100000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>79667.773926</v>
+        <v>79667.773925999994</v>
       </c>
       <c r="AP21" s="1">
-        <v>22.129937</v>
+        <v>22.129937000000002</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1413.540000</v>
+        <v>1413.54</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.544000</v>
+        <v>-253.54400000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>79678.895735</v>
+        <v>79678.895734999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>22.133027</v>
+        <v>22.133026999999998</v>
       </c>
       <c r="AV21" s="1">
-        <v>1438.840000</v>
+        <v>1438.84</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.819000</v>
+        <v>-312.81900000000002</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>79689.937160</v>
+        <v>79689.937160000001</v>
       </c>
       <c r="AZ21" s="1">
         <v>22.136094</v>
       </c>
       <c r="BA21" s="1">
-        <v>1458.630000</v>
+        <v>1458.63</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.301000</v>
+        <v>-364.30099999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>79700.949866</v>
+        <v>79700.949865999995</v>
       </c>
       <c r="BE21" s="1">
         <v>22.139153</v>
       </c>
       <c r="BF21" s="1">
-        <v>1545.240000</v>
+        <v>1545.24</v>
       </c>
       <c r="BG21" s="1">
-        <v>-609.377000</v>
+        <v>-609.37699999999995</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>79712.273002</v>
+        <v>79712.273002000002</v>
       </c>
       <c r="BJ21" s="1">
         <v>22.142298</v>
       </c>
       <c r="BK21" s="1">
-        <v>1701.140000</v>
+        <v>1701.14</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1048.070000</v>
+        <v>-1048.07</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>79722.742149</v>
+        <v>79722.742148999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>22.145206</v>
+        <v>22.145206000000002</v>
       </c>
       <c r="BP21" s="1">
-        <v>1997.090000</v>
+        <v>1997.09</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1805.740000</v>
+        <v>-1805.74</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>79733.799375</v>
+        <v>79733.799375000002</v>
       </c>
       <c r="BT21" s="1">
-        <v>22.148278</v>
+        <v>22.148278000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>2386.120000</v>
+        <v>2386.12</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2679.150000</v>
+        <v>-2679.15</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>79744.672671</v>
+        <v>79744.672670999993</v>
       </c>
       <c r="BY21" s="1">
-        <v>22.151298</v>
+        <v>22.151298000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2865.760000</v>
+        <v>2865.76</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3625.770000</v>
+        <v>-3625.77</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>79757.668349</v>
       </c>
       <c r="CD21" s="1">
-        <v>22.154908</v>
+        <v>22.154907999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>4272.960000</v>
+        <v>4272.96</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5905.410000</v>
+        <v>-5905.41</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>79583.312676</v>
+        <v>79583.312676000001</v>
       </c>
       <c r="B22" s="1">
-        <v>22.106476</v>
+        <v>22.106476000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1249.750000</v>
+        <v>1249.75</v>
       </c>
       <c r="D22" s="1">
-        <v>-307.237000</v>
+        <v>-307.23700000000002</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>79593.820433</v>
+        <v>79593.820433000001</v>
       </c>
       <c r="G22" s="1">
-        <v>22.109395</v>
+        <v>22.109394999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1275.660000</v>
+        <v>1275.6600000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-266.170000</v>
+        <v>-266.17</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>79604.308363</v>
+        <v>79604.308363000004</v>
       </c>
       <c r="L22" s="1">
-        <v>22.112308</v>
+        <v>22.112307999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1311.940000</v>
+        <v>1311.94</v>
       </c>
       <c r="N22" s="1">
-        <v>-204.554000</v>
+        <v>-204.554</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>79614.862698</v>
+        <v>79614.862697999997</v>
       </c>
       <c r="Q22" s="1">
-        <v>22.115240</v>
+        <v>22.11524</v>
       </c>
       <c r="R22" s="1">
-        <v>1324.540000</v>
+        <v>1324.54</v>
       </c>
       <c r="S22" s="1">
-        <v>-186.591000</v>
+        <v>-186.59100000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>79625.418061</v>
+        <v>79625.418061000004</v>
       </c>
       <c r="V22" s="1">
-        <v>22.118172</v>
+        <v>22.118172000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1338.220000</v>
+        <v>1338.22</v>
       </c>
       <c r="X22" s="1">
-        <v>-173.092000</v>
+        <v>-173.09200000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>79636.236830</v>
+        <v>79636.236829999994</v>
       </c>
       <c r="AA22" s="1">
-        <v>22.121177</v>
+        <v>22.121176999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1356.300000</v>
+        <v>1356.3</v>
       </c>
       <c r="AC22" s="1">
-        <v>-170.881000</v>
+        <v>-170.881</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>79646.726688</v>
+        <v>79646.726687999995</v>
       </c>
       <c r="AF22" s="1">
         <v>22.124091</v>
       </c>
       <c r="AG22" s="1">
-        <v>1369.710000</v>
+        <v>1369.71</v>
       </c>
       <c r="AH22" s="1">
-        <v>-180.647000</v>
+        <v>-180.64699999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>79657.257748</v>
+        <v>79657.257748000004</v>
       </c>
       <c r="AK22" s="1">
-        <v>22.127016</v>
+        <v>22.127016000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1391.160000</v>
+        <v>1391.16</v>
       </c>
       <c r="AM22" s="1">
-        <v>-210.208000</v>
+        <v>-210.208</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>79668.132036</v>
+        <v>79668.132035999995</v>
       </c>
       <c r="AP22" s="1">
-        <v>22.130037</v>
+        <v>22.130037000000002</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1413.560000</v>
+        <v>1413.56</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.510000</v>
+        <v>-253.51</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>79679.259318</v>
+        <v>79679.259317999997</v>
       </c>
       <c r="AU22" s="1">
-        <v>22.133128</v>
+        <v>22.133127999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1438.850000</v>
+        <v>1438.85</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.810000</v>
+        <v>-312.81</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>79690.658342</v>
+        <v>79690.658341999995</v>
       </c>
       <c r="AZ22" s="1">
-        <v>22.136294</v>
+        <v>22.136293999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1458.650000</v>
+        <v>1458.65</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.286000</v>
+        <v>-364.286</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>79701.667544</v>
+        <v>79701.667543999996</v>
       </c>
       <c r="BE22" s="1">
-        <v>22.139352</v>
+        <v>22.139351999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1545.260000</v>
+        <v>1545.26</v>
       </c>
       <c r="BG22" s="1">
-        <v>-609.370000</v>
+        <v>-609.37</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>79712.648010</v>
+        <v>79712.648010000004</v>
       </c>
       <c r="BJ22" s="1">
-        <v>22.142402</v>
+        <v>22.142402000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1701.200000</v>
+        <v>1701.2</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1048.090000</v>
+        <v>-1048.0899999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>79723.162667</v>
+        <v>79723.162666999997</v>
       </c>
       <c r="BO22" s="1">
-        <v>22.145323</v>
+        <v>22.145323000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1996.930000</v>
+        <v>1996.93</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1805.780000</v>
+        <v>-1805.78</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>79734.234860</v>
+        <v>79734.234859999997</v>
       </c>
       <c r="BT22" s="1">
-        <v>22.148399</v>
+        <v>22.148399000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>2386.520000</v>
+        <v>2386.52</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2678.870000</v>
+        <v>-2678.87</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>79745.407247</v>
+        <v>79745.407246999996</v>
       </c>
       <c r="BY22" s="1">
-        <v>22.151502</v>
+        <v>22.151502000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2865.360000</v>
+        <v>2865.36</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3626.090000</v>
+        <v>-3626.09</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>79757.899022</v>
+        <v>79757.899021999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>22.154972</v>
+        <v>22.154972000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>4262.510000</v>
+        <v>4262.51</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5892.560000</v>
+        <v>-5892.56</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>79583.659380</v>
+        <v>79583.659379999997</v>
       </c>
       <c r="B23" s="1">
         <v>22.106572</v>
       </c>
       <c r="C23" s="1">
-        <v>1249.850000</v>
+        <v>1249.8499999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-307.035000</v>
+        <v>-307.03500000000003</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>79594.163686</v>
       </c>
       <c r="G23" s="1">
-        <v>22.109490</v>
+        <v>22.109490000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1275.830000</v>
+        <v>1275.83</v>
       </c>
       <c r="I23" s="1">
-        <v>-265.914000</v>
+        <v>-265.91399999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>79604.731912</v>
+        <v>79604.731912000003</v>
       </c>
       <c r="L23" s="1">
-        <v>22.112426</v>
+        <v>22.112425999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1312.070000</v>
+        <v>1312.07</v>
       </c>
       <c r="N23" s="1">
-        <v>-204.230000</v>
+        <v>-204.23</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>79615.288763</v>
+        <v>79615.288763000004</v>
       </c>
       <c r="Q23" s="1">
-        <v>22.115358</v>
+        <v>22.115358000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1324.480000</v>
+        <v>1324.48</v>
       </c>
       <c r="S23" s="1">
-        <v>-186.589000</v>
+        <v>-186.589</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>79625.680940</v>
+        <v>79625.680940000006</v>
       </c>
       <c r="V23" s="1">
-        <v>22.118245</v>
+        <v>22.118245000000002</v>
       </c>
       <c r="W23" s="1">
-        <v>1338.140000</v>
+        <v>1338.14</v>
       </c>
       <c r="X23" s="1">
-        <v>-173.221000</v>
+        <v>-173.221</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>79636.585982</v>
+        <v>79636.585982000004</v>
       </c>
       <c r="AA23" s="1">
         <v>22.121274</v>
       </c>
       <c r="AB23" s="1">
-        <v>1356.310000</v>
+        <v>1356.31</v>
       </c>
       <c r="AC23" s="1">
-        <v>-170.894000</v>
+        <v>-170.89400000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>79647.070416</v>
+        <v>79647.070416000002</v>
       </c>
       <c r="AF23" s="1">
-        <v>22.124186</v>
+        <v>22.124186000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>1369.670000</v>
+        <v>1369.67</v>
       </c>
       <c r="AH23" s="1">
-        <v>-180.642000</v>
+        <v>-180.642</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>79657.609443</v>
+        <v>79657.609442999994</v>
       </c>
       <c r="AK23" s="1">
-        <v>22.127114</v>
+        <v>22.127113999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1391.160000</v>
+        <v>1391.16</v>
       </c>
       <c r="AM23" s="1">
-        <v>-210.196000</v>
+        <v>-210.196</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>79668.493124</v>
+        <v>79668.493124000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>22.130137</v>
+        <v>22.130137000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1413.560000</v>
+        <v>1413.56</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.565000</v>
+        <v>-253.565</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>79679.989894</v>
+        <v>79679.989893999998</v>
       </c>
       <c r="AU23" s="1">
-        <v>22.133331</v>
+        <v>22.133330999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>1438.820000</v>
+        <v>1438.82</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.795000</v>
+        <v>-312.79500000000002</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>79691.035303</v>
+        <v>79691.035302999997</v>
       </c>
       <c r="AZ23" s="1">
-        <v>22.136399</v>
+        <v>22.136399000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1458.610000</v>
+        <v>1458.61</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.263000</v>
+        <v>-364.26299999999998</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>79702.032631</v>
+        <v>79702.032630999995</v>
       </c>
       <c r="BE23" s="1">
-        <v>22.139454</v>
+        <v>22.139454000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1545.300000</v>
+        <v>1545.3</v>
       </c>
       <c r="BG23" s="1">
-        <v>-609.419000</v>
+        <v>-609.41899999999998</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>79713.025928</v>
+        <v>79713.025928000003</v>
       </c>
       <c r="BJ23" s="1">
-        <v>22.142507</v>
+        <v>22.142506999999998</v>
       </c>
       <c r="BK23" s="1">
-        <v>1701.170000</v>
+        <v>1701.17</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1048.060000</v>
+        <v>-1048.06</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>79723.881403</v>
+        <v>79723.881403000007</v>
       </c>
       <c r="BO23" s="1">
-        <v>22.145523</v>
+        <v>22.145523000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1997.070000</v>
+        <v>1997.07</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1805.680000</v>
+        <v>-1805.68</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>79734.974893</v>
+        <v>79734.974893000006</v>
       </c>
       <c r="BT23" s="1">
-        <v>22.148604</v>
+        <v>22.148603999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>2386.300000</v>
+        <v>2386.3000000000002</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2678.320000</v>
+        <v>-2678.32</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>79745.516366</v>
+        <v>79745.516365999996</v>
       </c>
       <c r="BY23" s="1">
         <v>22.151532</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2866.310000</v>
+        <v>2866.31</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3626.310000</v>
+        <v>-3626.31</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>79758.435171</v>
+        <v>79758.435171000005</v>
       </c>
       <c r="CD23" s="1">
-        <v>22.155121</v>
+        <v>22.155121000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>4262.700000</v>
+        <v>4262.7</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5913.450000</v>
+        <v>-5913.45</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>79584.003603</v>
+        <v>79584.003603000005</v>
       </c>
       <c r="B24" s="1">
-        <v>22.106668</v>
+        <v>22.106667999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1249.740000</v>
+        <v>1249.74</v>
       </c>
       <c r="D24" s="1">
-        <v>-306.871000</v>
+        <v>-306.87099999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>79594.593686</v>
+        <v>79594.593685999993</v>
       </c>
       <c r="G24" s="1">
-        <v>22.109609</v>
+        <v>22.109608999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1275.730000</v>
+        <v>1275.73</v>
       </c>
       <c r="I24" s="1">
-        <v>-266.025000</v>
+        <v>-266.02499999999998</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>79605.001748</v>
+        <v>79605.001747999995</v>
       </c>
       <c r="L24" s="1">
-        <v>22.112500</v>
+        <v>22.112500000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1312.200000</v>
+        <v>1312.2</v>
       </c>
       <c r="N24" s="1">
-        <v>-204.414000</v>
+        <v>-204.41399999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>79615.569531</v>
+        <v>79615.569531000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>22.115436</v>
+        <v>22.115435999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1324.490000</v>
+        <v>1324.49</v>
       </c>
       <c r="S24" s="1">
-        <v>-186.518000</v>
+        <v>-186.518</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>79626.022716</v>
+        <v>79626.022716000007</v>
       </c>
       <c r="V24" s="1">
-        <v>22.118340</v>
+        <v>22.11834</v>
       </c>
       <c r="W24" s="1">
-        <v>1338.220000</v>
+        <v>1338.22</v>
       </c>
       <c r="X24" s="1">
-        <v>-173.254000</v>
+        <v>-173.25399999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>79636.934669</v>
+        <v>79636.934668999995</v>
       </c>
       <c r="AA24" s="1">
         <v>22.121371</v>
       </c>
       <c r="AB24" s="1">
-        <v>1356.200000</v>
+        <v>1356.2</v>
       </c>
       <c r="AC24" s="1">
-        <v>-170.994000</v>
+        <v>-170.994</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>79647.416127</v>
+        <v>79647.416127000004</v>
       </c>
       <c r="AF24" s="1">
-        <v>22.124282</v>
+        <v>22.124282000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1369.660000</v>
+        <v>1369.66</v>
       </c>
       <c r="AH24" s="1">
-        <v>-180.575000</v>
+        <v>-180.57499999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>79658.305297</v>
+        <v>79658.305296999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>22.127307</v>
+        <v>22.127306999999998</v>
       </c>
       <c r="AL24" s="1">
-        <v>1391.160000</v>
+        <v>1391.16</v>
       </c>
       <c r="AM24" s="1">
-        <v>-210.232000</v>
+        <v>-210.232</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>79669.220755</v>
+        <v>79669.220755000002</v>
       </c>
       <c r="AP24" s="1">
-        <v>22.130339</v>
+        <v>22.130338999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1413.560000</v>
+        <v>1413.56</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.598000</v>
+        <v>-253.59800000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>79680.380244</v>
       </c>
       <c r="AU24" s="1">
-        <v>22.133439</v>
+        <v>22.133438999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1438.840000</v>
+        <v>1438.84</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.832000</v>
+        <v>-312.83199999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>79691.413253</v>
+        <v>79691.413253000006</v>
       </c>
       <c r="AZ24" s="1">
-        <v>22.136504</v>
+        <v>22.136503999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1458.630000</v>
+        <v>1458.63</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.262000</v>
+        <v>-364.262</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>79702.395175</v>
+        <v>79702.395174999998</v>
       </c>
       <c r="BE24" s="1">
         <v>22.139554</v>
       </c>
       <c r="BF24" s="1">
-        <v>1545.260000</v>
+        <v>1545.26</v>
       </c>
       <c r="BG24" s="1">
-        <v>-609.381000</v>
+        <v>-609.38099999999997</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>79713.711432</v>
+        <v>79713.711431999996</v>
       </c>
       <c r="BJ24" s="1">
-        <v>22.142698</v>
+        <v>22.142697999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1701.130000</v>
+        <v>1701.13</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1048.030000</v>
+        <v>-1048.03</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>79723.991494</v>
+        <v>79723.991494000002</v>
       </c>
       <c r="BO24" s="1">
         <v>22.145553</v>
       </c>
       <c r="BP24" s="1">
-        <v>1997.000000</v>
+        <v>1997</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1805.800000</v>
+        <v>-1805.8</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>79735.106365</v>
       </c>
       <c r="BT24" s="1">
-        <v>22.148641</v>
+        <v>22.148641000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>2387.180000</v>
+        <v>2387.1799999999998</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2677.580000</v>
+        <v>-2677.58</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>79745.949869</v>
+        <v>79745.949869000004</v>
       </c>
       <c r="BY24" s="1">
         <v>22.151653</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2865.870000</v>
+        <v>2865.87</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3625.790000</v>
+        <v>-3625.79</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>79758.975804</v>
+        <v>79758.975804000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>22.155271</v>
+        <v>22.155270999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>4270.820000</v>
+        <v>4270.82</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5890.510000</v>
+        <v>-5890.51</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>79584.430162</v>
+        <v>79584.430162000004</v>
       </c>
       <c r="B25" s="1">
         <v>22.106786</v>
       </c>
       <c r="C25" s="1">
-        <v>1250.150000</v>
+        <v>1250.1500000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-306.816000</v>
+        <v>-306.81599999999997</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>79594.857093</v>
+        <v>79594.857092999999</v>
       </c>
       <c r="G25" s="1">
         <v>22.109683</v>
       </c>
       <c r="H25" s="1">
-        <v>1275.980000</v>
+        <v>1275.98</v>
       </c>
       <c r="I25" s="1">
-        <v>-266.016000</v>
+        <v>-266.01600000000002</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>79605.347447</v>
+        <v>79605.347446999993</v>
       </c>
       <c r="L25" s="1">
-        <v>22.112597</v>
+        <v>22.112597000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1312.040000</v>
+        <v>1312.04</v>
       </c>
       <c r="N25" s="1">
-        <v>-204.477000</v>
+        <v>-204.477</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>79615.918681</v>
+        <v>79615.918680999996</v>
       </c>
       <c r="Q25" s="1">
-        <v>22.115533</v>
+        <v>22.115532999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1324.550000</v>
+        <v>1324.55</v>
       </c>
       <c r="S25" s="1">
-        <v>-186.556000</v>
+        <v>-186.55600000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>79626.366908</v>
+        <v>79626.366907999996</v>
       </c>
       <c r="V25" s="1">
-        <v>22.118435</v>
+        <v>22.118435000000002</v>
       </c>
       <c r="W25" s="1">
-        <v>1338.170000</v>
+        <v>1338.17</v>
       </c>
       <c r="X25" s="1">
-        <v>-172.995000</v>
+        <v>-172.995</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>79637.628077</v>
+        <v>79637.628077000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>22.121563</v>
+        <v>22.121562999999998</v>
       </c>
       <c r="AB25" s="1">
-        <v>1356.130000</v>
+        <v>1356.13</v>
       </c>
       <c r="AC25" s="1">
-        <v>-170.964000</v>
+        <v>-170.964</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>79648.105071</v>
+        <v>79648.105070999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>22.124474</v>
+        <v>22.124473999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1369.680000</v>
+        <v>1369.68</v>
       </c>
       <c r="AH25" s="1">
-        <v>-180.617000</v>
+        <v>-180.61699999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>79658.655505</v>
+        <v>79658.655505000002</v>
       </c>
       <c r="AK25" s="1">
-        <v>22.127404</v>
+        <v>22.127403999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1391.160000</v>
+        <v>1391.16</v>
       </c>
       <c r="AM25" s="1">
-        <v>-210.195000</v>
+        <v>-210.19499999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>79669.617556</v>
+        <v>79669.617555999997</v>
       </c>
       <c r="AP25" s="1">
-        <v>22.130449</v>
+        <v>22.130448999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1413.540000</v>
+        <v>1413.54</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.549000</v>
+        <v>-253.54900000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>79680.741827</v>
+        <v>79680.741827000005</v>
       </c>
       <c r="AU25" s="1">
-        <v>22.133539</v>
+        <v>22.133538999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1438.890000</v>
+        <v>1438.89</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.804000</v>
+        <v>-312.80399999999997</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>79692.085345</v>
       </c>
       <c r="AZ25" s="1">
-        <v>22.136690</v>
+        <v>22.136690000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>1458.600000</v>
+        <v>1458.6</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.250000</v>
+        <v>-364.25</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>79703.071222</v>
+        <v>79703.071221999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>22.139742</v>
+        <v>22.139741999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1545.290000</v>
+        <v>1545.29</v>
       </c>
       <c r="BG25" s="1">
-        <v>-609.364000</v>
+        <v>-609.36400000000003</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>79714.148376</v>
+        <v>79714.148375999997</v>
       </c>
       <c r="BJ25" s="1">
-        <v>22.142819</v>
+        <v>22.142818999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1701.130000</v>
+        <v>1701.13</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1048.000000</v>
+        <v>-1048</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>79724.403690</v>
+        <v>79724.403690000006</v>
       </c>
       <c r="BO25" s="1">
-        <v>22.145668</v>
+        <v>22.145668000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1997.020000</v>
+        <v>1997.02</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1805.640000</v>
+        <v>-1805.64</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>79735.520987</v>
+        <v>79735.520986999996</v>
       </c>
       <c r="BT25" s="1">
-        <v>22.148756</v>
+        <v>22.148755999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>2386.830000</v>
+        <v>2386.83</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2677.200000</v>
+        <v>-2677.2</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>79746.371998</v>
+        <v>79746.371998000002</v>
       </c>
       <c r="BY25" s="1">
-        <v>22.151770</v>
+        <v>22.151769999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2865.440000</v>
+        <v>2865.44</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3625.430000</v>
+        <v>-3625.43</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>79759.514955</v>
+        <v>79759.514955000006</v>
       </c>
       <c r="CD25" s="1">
         <v>22.155421</v>
       </c>
       <c r="CE25" s="1">
-        <v>4256.260000</v>
+        <v>4256.26</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5904.540000</v>
+        <v>-5904.54</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>79584.826994</v>
+        <v>79584.826994000003</v>
       </c>
       <c r="B26" s="1">
-        <v>22.106896</v>
+        <v>22.106895999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1249.890000</v>
+        <v>1249.8900000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-307.100000</v>
+        <v>-307.10000000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>79595.201284</v>
+        <v>79595.201283999995</v>
       </c>
       <c r="G26" s="1">
-        <v>22.109778</v>
+        <v>22.109777999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1275.380000</v>
+        <v>1275.3800000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-266.061000</v>
+        <v>-266.06099999999998</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>79605.692663</v>
+        <v>79605.692662999994</v>
       </c>
       <c r="L26" s="1">
-        <v>22.112692</v>
+        <v>22.112691999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1312.190000</v>
+        <v>1312.19</v>
       </c>
       <c r="N26" s="1">
-        <v>-204.785000</v>
+        <v>-204.785</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>79616.267377</v>
+        <v>79616.267376999996</v>
       </c>
       <c r="Q26" s="1">
-        <v>22.115630</v>
+        <v>22.115629999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1324.550000</v>
+        <v>1324.55</v>
       </c>
       <c r="S26" s="1">
-        <v>-186.628000</v>
+        <v>-186.62799999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>79627.055386</v>
+        <v>79627.055386000007</v>
       </c>
       <c r="V26" s="1">
-        <v>22.118626</v>
+        <v>22.118625999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1338.390000</v>
+        <v>1338.39</v>
       </c>
       <c r="X26" s="1">
-        <v>-172.999000</v>
+        <v>-172.999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>79637.981228</v>
+        <v>79637.981228000004</v>
       </c>
       <c r="AA26" s="1">
         <v>22.121661</v>
       </c>
       <c r="AB26" s="1">
-        <v>1356.290000</v>
+        <v>1356.29</v>
       </c>
       <c r="AC26" s="1">
-        <v>-170.860000</v>
+        <v>-170.86</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>79648.445326</v>
+        <v>79648.445326000001</v>
       </c>
       <c r="AF26" s="1">
         <v>22.124568</v>
       </c>
       <c r="AG26" s="1">
-        <v>1369.690000</v>
+        <v>1369.69</v>
       </c>
       <c r="AH26" s="1">
-        <v>-180.592000</v>
+        <v>-180.59200000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>79659.002672</v>
+        <v>79659.002672000002</v>
       </c>
       <c r="AK26" s="1">
-        <v>22.127501</v>
+        <v>22.127500999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1391.160000</v>
+        <v>1391.16</v>
       </c>
       <c r="AM26" s="1">
-        <v>-210.222000</v>
+        <v>-210.22200000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>79670.309970</v>
+        <v>79670.309970000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>22.130642</v>
+        <v>22.130642000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1413.540000</v>
+        <v>1413.54</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.495000</v>
+        <v>-253.495</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>79681.425810</v>
+        <v>79681.425810000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>22.133729</v>
+        <v>22.133728999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1438.860000</v>
+        <v>1438.86</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.814000</v>
+        <v>-312.81400000000002</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>79692.498996</v>
+        <v>79692.498995999995</v>
       </c>
       <c r="AZ26" s="1">
-        <v>22.136805</v>
+        <v>22.136804999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1458.610000</v>
+        <v>1458.61</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.238000</v>
+        <v>-364.238</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>79703.506718</v>
+        <v>79703.506718000004</v>
       </c>
       <c r="BE26" s="1">
-        <v>22.139863</v>
+        <v>22.139862999999998</v>
       </c>
       <c r="BF26" s="1">
-        <v>1545.290000</v>
+        <v>1545.29</v>
       </c>
       <c r="BG26" s="1">
-        <v>-609.377000</v>
+        <v>-609.37699999999995</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>79714.522856</v>
+        <v>79714.522855999996</v>
       </c>
       <c r="BJ26" s="1">
         <v>22.142923</v>
       </c>
       <c r="BK26" s="1">
-        <v>1701.130000</v>
+        <v>1701.13</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1048.020000</v>
+        <v>-1048.02</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>79724.800953</v>
+        <v>79724.800952999998</v>
       </c>
       <c r="BO26" s="1">
         <v>22.145778</v>
       </c>
       <c r="BP26" s="1">
-        <v>1996.870000</v>
+        <v>1996.87</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1805.700000</v>
+        <v>-1805.7</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>79735.951515</v>
+        <v>79735.951514999993</v>
       </c>
       <c r="BT26" s="1">
         <v>22.148875</v>
       </c>
       <c r="BU26" s="1">
-        <v>2386.670000</v>
+        <v>2386.67</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2676.720000</v>
+        <v>-2676.72</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>79746.798524</v>
+        <v>79746.798523999998</v>
       </c>
       <c r="BY26" s="1">
         <v>22.151888</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2865.360000</v>
+        <v>2865.36</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3626.020000</v>
+        <v>-3626.02</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>79760.056091</v>
+        <v>79760.056091000006</v>
       </c>
       <c r="CD26" s="1">
-        <v>22.155571</v>
+        <v>22.155570999999998</v>
       </c>
       <c r="CE26" s="1">
-        <v>4275.290000</v>
+        <v>4275.29</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5903.710000</v>
+        <v>-5903.71</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>